--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1368892.202991805</v>
+        <v>1364429.847743189</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7197684.807001654</v>
+        <v>7197684.807001651</v>
       </c>
     </row>
     <row r="9">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>16.35237824064564</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.2817435681513</v>
+        <v>257.8493286306996</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I13" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>152.6902671187685</v>
@@ -1587,7 +1587,7 @@
         <v>277.3333288037839</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>126.5411986128981</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.09258132375578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>82.72348716693328</v>
       </c>
       <c r="H14" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.43123191120421</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6906163901009</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.49604960007743</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T15" t="n">
         <v>136.1178674008418</v>
@@ -1773,16 +1773,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.3264464278099</v>
+        <v>57.0091900611845</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.0460627746974</v>
       </c>
       <c r="U16" t="n">
-        <v>99.94373641185466</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>57.85599315651501</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H17" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>20.34608254731305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>92.03568747117038</v>
       </c>
       <c r="H18" t="n">
-        <v>42.43550073219759</v>
+        <v>42.43550073219758</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.49604960007743</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T18" t="n">
         <v>136.1178674008418</v>
@@ -2004,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H19" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.949028315574182</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>152.6902671187685</v>
       </c>
       <c r="T19" t="n">
-        <v>237.0460627746974</v>
+        <v>199.0004675648402</v>
       </c>
       <c r="U19" t="n">
-        <v>147.2654545935035</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>81.02099235530042</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>35.42836079033807</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.49604960007742</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T21" t="n">
         <v>136.1178674008418</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>163.6910211419383</v>
       </c>
       <c r="H22" t="n">
-        <v>134.3264464278099</v>
+        <v>27.990415487272</v>
       </c>
       <c r="I22" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>152.6902671187685</v>
@@ -2298,13 +2298,13 @@
         <v>277.3333288037839</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>53.48793477224479</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.8375308979574</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>314.0400419830462</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.49604960007742</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T24" t="n">
         <v>136.1178674008418</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>141.039091660128</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2484,19 +2484,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>134.3264464278099</v>
       </c>
       <c r="I25" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>237.0460627746974</v>
       </c>
       <c r="U25" t="n">
-        <v>154.1299487783803</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>213.3556930397249</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>220.7592356803103</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.49604960007742</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T27" t="n">
         <v>136.1178674008418</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>58.19643481466448</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H28" t="n">
         <v>134.3264464278099</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>152.6902671187685</v>
+        <v>145.4438312100254</v>
       </c>
       <c r="T28" t="n">
         <v>237.0460627746974</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2794,22 +2794,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>178.6763528308463</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>398.2817435681513</v>
       </c>
       <c r="H29" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>56.09721046217776</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.49604960007742</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T30" t="n">
         <v>136.1178674008418</v>
@@ -2961,16 +2961,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>163.6910211419383</v>
       </c>
       <c r="H31" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>152.6902671187685</v>
@@ -3006,13 +3006,13 @@
         <v>237.0460627746974</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>127.1896915257557</v>
       </c>
       <c r="W31" t="n">
-        <v>83.89253305853656</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>242.9284302070011</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>77.44503580435146</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.49604960007742</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T33" t="n">
         <v>136.1178674008418</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3195,10 +3195,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>163.6910211419383</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>31.93704689391328</v>
+        <v>115.5404445897287</v>
       </c>
       <c r="T34" t="n">
         <v>237.0460627746974</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,19 +3271,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>389.648948353113</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>230.4879511378177</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.49604960007742</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T36" t="n">
         <v>136.1178674008418</v>
@@ -3426,10 +3426,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3444,7 +3444,7 @@
         <v>134.3264464278099</v>
       </c>
       <c r="I37" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.0460627746974</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3333288037839</v>
@@ -3486,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>103.7052222733602</v>
       </c>
       <c r="X37" t="n">
-        <v>92.06441364200028</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>49.89822516694711</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>98.18215401980352</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.49604960007742</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T39" t="n">
         <v>136.1178674008418</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3669,10 +3669,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>73.46011711566544</v>
       </c>
       <c r="G40" t="n">
         <v>163.6910211419383</v>
@@ -3681,7 +3681,7 @@
         <v>134.3264464278099</v>
       </c>
       <c r="I40" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>152.6902671187685</v>
@@ -3717,13 +3717,13 @@
         <v>237.0460627746974</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V40" t="n">
-        <v>192.5340482867155</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>121.4045984657626</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>67.20942829536033</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3906,7 +3906,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3915,10 +3915,10 @@
         <v>163.6910211419383</v>
       </c>
       <c r="H43" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>152.6902671187685</v>
       </c>
       <c r="T43" t="n">
-        <v>237.0460627746974</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>22.39089180353029</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>31.61014871914659</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>100.4992844291256</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>233.4012428507253</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,7 +4149,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T46" t="n">
-        <v>193.5552018371009</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3333288037839</v>
+        <v>123.8499081949511</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>885.545293102221</v>
+        <v>1855.312838196276</v>
       </c>
       <c r="C11" t="n">
-        <v>869.027739323791</v>
+        <v>1855.312838196276</v>
       </c>
       <c r="D11" t="n">
-        <v>445.7351185087913</v>
+        <v>1432.020217381276</v>
       </c>
       <c r="E11" t="n">
-        <v>445.7351185087913</v>
+        <v>1006.043277529133</v>
       </c>
       <c r="F11" t="n">
-        <v>445.7351185087913</v>
+        <v>580.9190957185336</v>
       </c>
       <c r="G11" t="n">
-        <v>43.43032702581019</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="H11" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I11" t="n">
-        <v>86.09345146672831</v>
+        <v>86.09345146672848</v>
       </c>
       <c r="J11" t="n">
-        <v>226.1880352922985</v>
+        <v>226.1880352922991</v>
       </c>
       <c r="K11" t="n">
-        <v>444.3985098873424</v>
+        <v>444.3985098873429</v>
       </c>
       <c r="L11" t="n">
-        <v>721.1044354144758</v>
+        <v>721.1044354144764</v>
       </c>
       <c r="M11" t="n">
         <v>1034.139376672043</v>
       </c>
       <c r="N11" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O11" t="n">
         <v>1651.903250255482</v>
@@ -5062,31 +5062,31 @@
         <v>1901.41298331237</v>
       </c>
       <c r="Q11" t="n">
-        <v>2080.956330428338</v>
+        <v>2080.956330428339</v>
       </c>
       <c r="R11" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S11" t="n">
-        <v>2113.505005925657</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="T11" t="n">
-        <v>2113.505005925657</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="U11" t="n">
-        <v>2113.505005925657</v>
+        <v>1855.312838196276</v>
       </c>
       <c r="V11" t="n">
-        <v>2113.505005925657</v>
+        <v>1855.312838196276</v>
       </c>
       <c r="W11" t="n">
-        <v>1717.113656226004</v>
+        <v>1855.312838196276</v>
       </c>
       <c r="X11" t="n">
-        <v>1305.393657393751</v>
+        <v>1855.312838196276</v>
       </c>
       <c r="Y11" t="n">
-        <v>1305.393657393751</v>
+        <v>1855.312838196276</v>
       </c>
     </row>
     <row r="12">
@@ -5111,13 +5111,13 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G12" t="n">
-        <v>86.29446917954513</v>
+        <v>86.29446917954515</v>
       </c>
       <c r="H12" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I12" t="n">
-        <v>64.14840690919138</v>
+        <v>64.14840690919139</v>
       </c>
       <c r="J12" t="n">
         <v>144.5298811612101</v>
@@ -5129,7 +5129,7 @@
         <v>503.9498672632496</v>
       </c>
       <c r="M12" t="n">
-        <v>751.3795283885233</v>
+        <v>990.0466997665803</v>
       </c>
       <c r="N12" t="n">
         <v>1246.366492570714</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>453.827394262791</v>
+        <v>852.4729223127197</v>
       </c>
       <c r="C13" t="n">
-        <v>453.827394262791</v>
+        <v>680.5003591916357</v>
       </c>
       <c r="D13" t="n">
-        <v>453.827394262791</v>
+        <v>517.1835863184064</v>
       </c>
       <c r="E13" t="n">
-        <v>287.6191884156445</v>
+        <v>350.9753804712599</v>
       </c>
       <c r="F13" t="n">
-        <v>115.7574141902049</v>
+        <v>179.1136062458203</v>
       </c>
       <c r="G13" t="n">
-        <v>115.7574141902049</v>
+        <v>179.1136062458203</v>
       </c>
       <c r="H13" t="n">
-        <v>115.7574141902049</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I13" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="J13" t="n">
-        <v>86.23013562371108</v>
+        <v>164.1518522719319</v>
       </c>
       <c r="K13" t="n">
-        <v>346.8757035582106</v>
+        <v>494.58609073387</v>
       </c>
       <c r="L13" t="n">
-        <v>834.5297467373164</v>
+        <v>982.2401339129758</v>
       </c>
       <c r="M13" t="n">
-        <v>952.3727174424721</v>
+        <v>1100.083104618132</v>
       </c>
       <c r="N13" t="n">
-        <v>1466.723416497847</v>
+        <v>1216.400880831626</v>
       </c>
       <c r="O13" t="n">
-        <v>1570.860832459528</v>
+        <v>1698.240621096511</v>
       </c>
       <c r="P13" t="n">
-        <v>1969.627016373226</v>
+        <v>1969.627016373227</v>
       </c>
       <c r="Q13" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="R13" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S13" t="n">
-        <v>2011.274638730567</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T13" t="n">
-        <v>1771.834171281378</v>
+        <v>1777.84329079206</v>
       </c>
       <c r="U13" t="n">
-        <v>1491.699495722</v>
+        <v>1497.708615232682</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.988028330029</v>
+        <v>1369.889222694401</v>
       </c>
       <c r="W13" t="n">
-        <v>935.1356245025422</v>
+        <v>1095.036818866914</v>
       </c>
       <c r="X13" t="n">
-        <v>692.5717279483473</v>
+        <v>852.4729223127197</v>
       </c>
       <c r="Y13" t="n">
-        <v>643.9933629748566</v>
+        <v>852.4729223127197</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>747.3659584014965</v>
+        <v>1402.306937584507</v>
       </c>
       <c r="C14" t="n">
-        <v>320.4652284147967</v>
+        <v>975.406207597807</v>
       </c>
       <c r="D14" t="n">
-        <v>320.4652284147967</v>
+        <v>552.1135867828073</v>
       </c>
       <c r="E14" t="n">
-        <v>320.4652284147967</v>
+        <v>552.1135867828073</v>
       </c>
       <c r="F14" t="n">
-        <v>320.4652284147967</v>
+        <v>126.9894049722075</v>
       </c>
       <c r="G14" t="n">
-        <v>320.4652284147967</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="H14" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I14" t="n">
-        <v>86.09345146672865</v>
+        <v>86.09345146672831</v>
       </c>
       <c r="J14" t="n">
-        <v>226.1880352922993</v>
+        <v>226.188035292299</v>
       </c>
       <c r="K14" t="n">
-        <v>444.398509887343</v>
+        <v>444.3985098873428</v>
       </c>
       <c r="L14" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144763</v>
       </c>
       <c r="M14" t="n">
         <v>1034.139376672043</v>
       </c>
       <c r="N14" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O14" t="n">
-        <v>1651.903250255481</v>
+        <v>1651.903250255482</v>
       </c>
       <c r="P14" t="n">
         <v>1901.41298331237</v>
       </c>
       <c r="Q14" t="n">
-        <v>2080.956330428338</v>
+        <v>2080.956330428339</v>
       </c>
       <c r="R14" t="n">
         <v>2171.51635129051</v>
       </c>
       <c r="S14" t="n">
-        <v>2113.505005925657</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T14" t="n">
-        <v>1901.484455955729</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="U14" t="n">
-        <v>1901.484455955729</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="V14" t="n">
-        <v>1564.423227278859</v>
+        <v>1814.02693641676</v>
       </c>
       <c r="W14" t="n">
-        <v>1564.423227278859</v>
+        <v>1814.02693641676</v>
       </c>
       <c r="X14" t="n">
-        <v>1152.703228446606</v>
+        <v>1402.306937584507</v>
       </c>
       <c r="Y14" t="n">
-        <v>747.3659584014965</v>
+        <v>1402.306937584507</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>86.29446917954513</v>
       </c>
       <c r="H15" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I15" t="n">
-        <v>87.60571275360323</v>
+        <v>64.14840690919139</v>
       </c>
       <c r="J15" t="n">
-        <v>167.9871870056219</v>
+        <v>144.5298811612101</v>
       </c>
       <c r="K15" t="n">
-        <v>318.0720884929719</v>
+        <v>294.6147826485601</v>
       </c>
       <c r="L15" t="n">
-        <v>527.4071731076614</v>
+        <v>503.9498672632496</v>
       </c>
       <c r="M15" t="n">
-        <v>774.8368342329351</v>
+        <v>990.0466997665801</v>
       </c>
       <c r="N15" t="n">
-        <v>1031.156627037069</v>
+        <v>1246.366492570714</v>
       </c>
       <c r="O15" t="n">
-        <v>1262.028444596878</v>
+        <v>1477.238310130523</v>
       </c>
       <c r="P15" t="n">
         <v>1659.391674476716</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1017.817388112657</v>
+        <v>436.3047034859664</v>
       </c>
       <c r="C16" t="n">
-        <v>845.8448249915733</v>
+        <v>264.3321403648824</v>
       </c>
       <c r="D16" t="n">
-        <v>682.528052118344</v>
+        <v>101.0153674916531</v>
       </c>
       <c r="E16" t="n">
-        <v>516.3198462711975</v>
+        <v>101.0153674916531</v>
       </c>
       <c r="F16" t="n">
-        <v>344.4580720457579</v>
+        <v>101.0153674916531</v>
       </c>
       <c r="G16" t="n">
-        <v>179.1136062458203</v>
+        <v>101.0153674916531</v>
       </c>
       <c r="H16" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I16" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="J16" t="n">
-        <v>86.23013562371108</v>
+        <v>164.151852271932</v>
       </c>
       <c r="K16" t="n">
-        <v>169.3817649716271</v>
+        <v>494.58609073387</v>
       </c>
       <c r="L16" t="n">
-        <v>657.0358081507328</v>
+        <v>982.2401339129758</v>
       </c>
       <c r="M16" t="n">
-        <v>1188.41425931871</v>
+        <v>1100.083104618132</v>
       </c>
       <c r="N16" t="n">
-        <v>1618.096913875746</v>
+        <v>1216.400880831626</v>
       </c>
       <c r="O16" t="n">
-        <v>1722.234329837427</v>
+        <v>1570.860832459528</v>
       </c>
       <c r="P16" t="n">
-        <v>2121.000513751125</v>
+        <v>1969.627016373227</v>
       </c>
       <c r="Q16" t="n">
         <v>2171.51635129051</v>
@@ -5463,25 +5463,25 @@
         <v>2171.51635129051</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.283758241249</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T16" t="n">
-        <v>1777.843290792059</v>
+        <v>1932.075883841321</v>
       </c>
       <c r="U16" t="n">
-        <v>1676.890021689176</v>
+        <v>1651.941208281943</v>
       </c>
       <c r="V16" t="n">
-        <v>1676.890021689176</v>
+        <v>1370.229740889972</v>
       </c>
       <c r="W16" t="n">
-        <v>1676.890021689176</v>
+        <v>1095.377337062485</v>
       </c>
       <c r="X16" t="n">
-        <v>1434.326125134981</v>
+        <v>852.81344050829</v>
       </c>
       <c r="Y16" t="n">
-        <v>1207.983356824723</v>
+        <v>626.470672198032</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1169.734789081939</v>
+        <v>1355.276637299326</v>
       </c>
       <c r="C17" t="n">
-        <v>1169.734789081939</v>
+        <v>1296.836240171534</v>
       </c>
       <c r="D17" t="n">
-        <v>746.4421682669391</v>
+        <v>1296.836240171534</v>
       </c>
       <c r="E17" t="n">
-        <v>320.4652284147967</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="F17" t="n">
-        <v>320.4652284147967</v>
+        <v>445.7351185087913</v>
       </c>
       <c r="G17" t="n">
-        <v>320.4652284147967</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H17" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="I17" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672851</v>
       </c>
       <c r="J17" t="n">
         <v>226.1880352922992</v>
       </c>
       <c r="K17" t="n">
-        <v>444.3985098873428</v>
+        <v>444.3985098873429</v>
       </c>
       <c r="L17" t="n">
-        <v>721.1044354144761</v>
+        <v>721.1044354144764</v>
       </c>
       <c r="M17" t="n">
         <v>1034.139376672043</v>
@@ -5545,22 +5545,22 @@
         <v>2171.51635129051</v>
       </c>
       <c r="T17" t="n">
-        <v>1959.495801320581</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="U17" t="n">
-        <v>1959.495801320581</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="V17" t="n">
-        <v>1602.006386446831</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="W17" t="n">
-        <v>1602.006386446831</v>
+        <v>1775.125001590857</v>
       </c>
       <c r="X17" t="n">
-        <v>1190.286387614578</v>
+        <v>1775.125001590857</v>
       </c>
       <c r="Y17" t="n">
-        <v>1169.734789081939</v>
+        <v>1775.125001590857</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>954.62808601619</v>
+        <v>598.9534360708841</v>
       </c>
       <c r="C18" t="n">
-        <v>837.1221825336947</v>
+        <v>481.4475325883889</v>
       </c>
       <c r="D18" t="n">
-        <v>733.2822240489797</v>
+        <v>377.6075741036739</v>
       </c>
       <c r="E18" t="n">
-        <v>628.580290321917</v>
+        <v>272.9056403766111</v>
       </c>
       <c r="F18" t="n">
-        <v>534.9344600048212</v>
+        <v>179.2598100595152</v>
       </c>
       <c r="G18" t="n">
-        <v>441.9691191248511</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H18" t="n">
-        <v>399.1049769711162</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I18" t="n">
-        <v>419.8230568544973</v>
+        <v>64.14840690919138</v>
       </c>
       <c r="J18" t="n">
-        <v>738.8717024845728</v>
+        <v>144.5298811612101</v>
       </c>
       <c r="K18" t="n">
-        <v>888.9566039719227</v>
+        <v>294.6147826485601</v>
       </c>
       <c r="L18" t="n">
-        <v>1098.291688586612</v>
+        <v>503.9498672632496</v>
       </c>
       <c r="M18" t="n">
-        <v>1345.721349711886</v>
+        <v>990.0466997665801</v>
       </c>
       <c r="N18" t="n">
-        <v>1602.04114251602</v>
+        <v>1246.366492570714</v>
       </c>
       <c r="O18" t="n">
-        <v>1832.912960075829</v>
+        <v>1477.238310130523</v>
       </c>
       <c r="P18" t="n">
-        <v>2015.066324422021</v>
+        <v>1659.391674476716</v>
       </c>
       <c r="Q18" t="n">
-        <v>2128.719155173029</v>
+        <v>1773.044505227723</v>
       </c>
       <c r="R18" t="n">
-        <v>2171.51635129051</v>
+        <v>1815.841701345204</v>
       </c>
       <c r="S18" t="n">
-        <v>2110.409230482351</v>
+        <v>1754.734580537045</v>
       </c>
       <c r="T18" t="n">
-        <v>1972.916435127965</v>
+        <v>1617.241785182659</v>
       </c>
       <c r="U18" t="n">
-        <v>1788.219846343814</v>
+        <v>1432.545196398508</v>
       </c>
       <c r="V18" t="n">
-        <v>1583.24670748308</v>
+        <v>1227.572057537774</v>
       </c>
       <c r="W18" t="n">
-        <v>1386.725330316297</v>
+        <v>1031.050680370992</v>
       </c>
       <c r="X18" t="n">
-        <v>1223.24798408296</v>
+        <v>867.5733341376545</v>
       </c>
       <c r="Y18" t="n">
-        <v>1083.555095436253</v>
+        <v>727.8804454909468</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>689.1561494394903</v>
+        <v>546.8447728983339</v>
       </c>
       <c r="C19" t="n">
-        <v>517.1835863184062</v>
+        <v>546.8447728983339</v>
       </c>
       <c r="D19" t="n">
-        <v>517.1835863184062</v>
+        <v>546.8447728983339</v>
       </c>
       <c r="E19" t="n">
-        <v>350.9753804712598</v>
+        <v>380.6365670511875</v>
       </c>
       <c r="F19" t="n">
-        <v>179.1136062458203</v>
+        <v>208.7747928257479</v>
       </c>
       <c r="G19" t="n">
-        <v>179.1136062458203</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H19" t="n">
         <v>43.43032702581019</v>
@@ -5673,22 +5673,22 @@
         <v>43.43032702581019</v>
       </c>
       <c r="J19" t="n">
-        <v>86.23013562371106</v>
+        <v>86.23013562371109</v>
       </c>
       <c r="K19" t="n">
-        <v>396.1564943345572</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L19" t="n">
-        <v>507.421643922498</v>
+        <v>657.0358081507329</v>
       </c>
       <c r="M19" t="n">
-        <v>1038.800095090475</v>
+        <v>774.8787788558886</v>
       </c>
       <c r="N19" t="n">
-        <v>1553.15079414585</v>
+        <v>1289.229477911263</v>
       </c>
       <c r="O19" t="n">
-        <v>2034.990534410735</v>
+        <v>1771.069218176148</v>
       </c>
       <c r="P19" t="n">
         <v>2121.000513751125</v>
@@ -5697,28 +5697,28 @@
         <v>2171.51635129051</v>
       </c>
       <c r="R19" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S19" t="n">
-        <v>2011.274638730567</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T19" t="n">
-        <v>1771.834171281378</v>
+        <v>1816.27318494343</v>
       </c>
       <c r="U19" t="n">
-        <v>1623.081186843496</v>
+        <v>1536.138509384052</v>
       </c>
       <c r="V19" t="n">
-        <v>1623.081186843496</v>
+        <v>1254.427041992081</v>
       </c>
       <c r="W19" t="n">
-        <v>1348.228783016009</v>
+        <v>979.5746381645944</v>
       </c>
       <c r="X19" t="n">
-        <v>1105.664886461814</v>
+        <v>737.0107416103995</v>
       </c>
       <c r="Y19" t="n">
-        <v>879.322118151556</v>
+        <v>737.0107416103995</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>896.3079968646525</v>
+        <v>527.5745047262665</v>
       </c>
       <c r="C20" t="n">
-        <v>469.4072668779526</v>
+        <v>527.5745047262665</v>
       </c>
       <c r="D20" t="n">
-        <v>469.4072668779526</v>
+        <v>527.5745047262665</v>
       </c>
       <c r="E20" t="n">
-        <v>43.43032702581019</v>
+        <v>527.5745047262665</v>
       </c>
       <c r="F20" t="n">
-        <v>43.43032702581019</v>
+        <v>445.7351185087913</v>
       </c>
       <c r="G20" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H20" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I20" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672865</v>
       </c>
       <c r="J20" t="n">
-        <v>226.1880352922992</v>
+        <v>226.1880352922994</v>
       </c>
       <c r="K20" t="n">
-        <v>444.3985098873429</v>
+        <v>444.3985098873432</v>
       </c>
       <c r="L20" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144766</v>
       </c>
       <c r="M20" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N20" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O20" t="n">
         <v>1651.903250255482</v>
@@ -5773,31 +5773,31 @@
         <v>1901.41298331237</v>
       </c>
       <c r="Q20" t="n">
-        <v>2080.956330428338</v>
+        <v>2080.956330428339</v>
       </c>
       <c r="R20" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S20" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="T20" t="n">
-        <v>1959.495801320581</v>
+        <v>1959.495801320582</v>
       </c>
       <c r="U20" t="n">
-        <v>1701.303633591199</v>
+        <v>1701.3036335912</v>
       </c>
       <c r="V20" t="n">
-        <v>1343.814218717449</v>
+        <v>1343.81421871745</v>
       </c>
       <c r="W20" t="n">
-        <v>1308.027995696905</v>
+        <v>947.4228690177965</v>
       </c>
       <c r="X20" t="n">
-        <v>896.3079968646525</v>
+        <v>947.4228690177965</v>
       </c>
       <c r="Y20" t="n">
-        <v>896.3079968646525</v>
+        <v>947.4228690177965</v>
       </c>
     </row>
     <row r="21">
@@ -5822,31 +5822,31 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G21" t="n">
-        <v>86.29446917954513</v>
+        <v>86.29446917954515</v>
       </c>
       <c r="H21" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I21" t="n">
-        <v>64.14840690919138</v>
+        <v>64.14840690919141</v>
       </c>
       <c r="J21" t="n">
         <v>144.5298811612101</v>
       </c>
       <c r="K21" t="n">
-        <v>294.6147826485601</v>
+        <v>294.6147826485602</v>
       </c>
       <c r="L21" t="n">
-        <v>503.9498672632496</v>
+        <v>742.6170386413061</v>
       </c>
       <c r="M21" t="n">
-        <v>751.3795283885233</v>
+        <v>990.0466997665799</v>
       </c>
       <c r="N21" t="n">
-        <v>1007.699321192657</v>
+        <v>1246.366492570713</v>
       </c>
       <c r="O21" t="n">
-        <v>1477.238310130524</v>
+        <v>1477.238310130523</v>
       </c>
       <c r="P21" t="n">
         <v>1659.391674476716</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>746.3101379305284</v>
+        <v>747.0904829762584</v>
       </c>
       <c r="C22" t="n">
-        <v>746.3101379305284</v>
+        <v>575.1179198551744</v>
       </c>
       <c r="D22" t="n">
-        <v>582.9933650572991</v>
+        <v>575.1179198551744</v>
       </c>
       <c r="E22" t="n">
-        <v>416.7851592101527</v>
+        <v>408.9097140080279</v>
       </c>
       <c r="F22" t="n">
-        <v>416.7851592101527</v>
+        <v>237.0479397825883</v>
       </c>
       <c r="G22" t="n">
-        <v>251.440693410215</v>
+        <v>71.70347398265062</v>
       </c>
       <c r="H22" t="n">
-        <v>115.7574141902049</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I22" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="J22" t="n">
-        <v>164.1518522719319</v>
+        <v>164.151852271932</v>
       </c>
       <c r="K22" t="n">
-        <v>247.303481619848</v>
+        <v>367.2063020968881</v>
       </c>
       <c r="L22" t="n">
-        <v>734.9575247989537</v>
+        <v>854.8603452759938</v>
       </c>
       <c r="M22" t="n">
-        <v>1038.800095090475</v>
+        <v>972.7033159811497</v>
       </c>
       <c r="N22" t="n">
-        <v>1553.15079414585</v>
+        <v>1089.021092194644</v>
       </c>
       <c r="O22" t="n">
-        <v>2034.990534410735</v>
+        <v>1570.860832459529</v>
       </c>
       <c r="P22" t="n">
-        <v>2121.000513751125</v>
+        <v>1969.627016373227</v>
       </c>
       <c r="Q22" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="R22" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S22" t="n">
-        <v>2011.274638730567</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T22" t="n">
-        <v>1771.834171281378</v>
+        <v>1777.84329079206</v>
       </c>
       <c r="U22" t="n">
-        <v>1491.699495722</v>
+        <v>1497.708615232682</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.699495722</v>
+        <v>1215.997147840711</v>
       </c>
       <c r="W22" t="n">
-        <v>1216.847091894513</v>
+        <v>1215.997147840711</v>
       </c>
       <c r="X22" t="n">
-        <v>1162.818874952852</v>
+        <v>973.4332512865163</v>
       </c>
       <c r="Y22" t="n">
-        <v>936.476106642594</v>
+        <v>747.0904829762584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1172.490140212096</v>
+        <v>785.7666724556486</v>
       </c>
       <c r="C23" t="n">
-        <v>745.5894102253965</v>
+        <v>468.55450883641</v>
       </c>
       <c r="D23" t="n">
-        <v>745.5894102253965</v>
+        <v>468.55450883641</v>
       </c>
       <c r="E23" t="n">
-        <v>745.5894102253965</v>
+        <v>468.55450883641</v>
       </c>
       <c r="F23" t="n">
-        <v>320.4652284147966</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="G23" t="n">
-        <v>320.4652284147966</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H23" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I23" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672857</v>
       </c>
       <c r="J23" t="n">
         <v>226.1880352922992</v>
       </c>
       <c r="K23" t="n">
-        <v>444.3985098873429</v>
+        <v>444.398509887343</v>
       </c>
       <c r="L23" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144763</v>
       </c>
       <c r="M23" t="n">
         <v>1034.139376672043</v>
@@ -6010,31 +6010,31 @@
         <v>1901.41298331237</v>
       </c>
       <c r="Q23" t="n">
-        <v>2080.956330428338</v>
+        <v>2080.956330428339</v>
       </c>
       <c r="R23" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S23" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="T23" t="n">
-        <v>2171.51635129051</v>
+        <v>1959.495801320582</v>
       </c>
       <c r="U23" t="n">
-        <v>2171.51635129051</v>
+        <v>1959.495801320582</v>
       </c>
       <c r="V23" t="n">
-        <v>1814.026936416759</v>
+        <v>1602.006386446832</v>
       </c>
       <c r="W23" t="n">
-        <v>1814.026936416759</v>
+        <v>1205.615036747179</v>
       </c>
       <c r="X23" t="n">
-        <v>1814.026936416759</v>
+        <v>1205.615036747179</v>
       </c>
       <c r="Y23" t="n">
-        <v>1408.689666371649</v>
+        <v>1205.615036747179</v>
       </c>
     </row>
     <row r="24">
@@ -6059,31 +6059,31 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G24" t="n">
-        <v>86.29446917954513</v>
+        <v>86.29446917954515</v>
       </c>
       <c r="H24" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I24" t="n">
-        <v>64.14840690919138</v>
+        <v>64.14840690919141</v>
       </c>
       <c r="J24" t="n">
         <v>144.5298811612101</v>
       </c>
       <c r="K24" t="n">
-        <v>294.6147826485601</v>
+        <v>294.6147826485602</v>
       </c>
       <c r="L24" t="n">
-        <v>503.9498672632496</v>
+        <v>742.617038641306</v>
       </c>
       <c r="M24" t="n">
-        <v>990.0466997665803</v>
+        <v>990.0466997665798</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.366492570714</v>
+        <v>1246.366492570713</v>
       </c>
       <c r="O24" t="n">
-        <v>1477.238310130524</v>
+        <v>1477.238310130523</v>
       </c>
       <c r="P24" t="n">
         <v>1659.391674476716</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>923.9362694299056</v>
+        <v>852.4729223127197</v>
       </c>
       <c r="C25" t="n">
-        <v>751.9637063088215</v>
+        <v>680.5003591916357</v>
       </c>
       <c r="D25" t="n">
-        <v>588.6469334355922</v>
+        <v>517.1835863184064</v>
       </c>
       <c r="E25" t="n">
-        <v>588.6469334355922</v>
+        <v>350.9753804712599</v>
       </c>
       <c r="F25" t="n">
-        <v>416.7851592101527</v>
+        <v>179.1136062458203</v>
       </c>
       <c r="G25" t="n">
-        <v>251.440693410215</v>
+        <v>179.1136062458203</v>
       </c>
       <c r="H25" t="n">
-        <v>115.7574141902049</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I25" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="J25" t="n">
-        <v>86.23013562371108</v>
+        <v>164.151852271932</v>
       </c>
       <c r="K25" t="n">
-        <v>396.1564943345572</v>
+        <v>247.303481619848</v>
       </c>
       <c r="L25" t="n">
-        <v>507.421643922498</v>
+        <v>358.5686312077889</v>
       </c>
       <c r="M25" t="n">
-        <v>1038.800095090475</v>
+        <v>889.9470823757665</v>
       </c>
       <c r="N25" t="n">
-        <v>1553.15079414585</v>
+        <v>1404.297781431141</v>
       </c>
       <c r="O25" t="n">
-        <v>2034.990534410735</v>
+        <v>1883.617037032837</v>
       </c>
       <c r="P25" t="n">
-        <v>2121.000513751125</v>
+        <v>1969.627016373227</v>
       </c>
       <c r="Q25" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="R25" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S25" t="n">
         <v>2017.283758241249</v>
       </c>
       <c r="T25" t="n">
-        <v>1777.843290792059</v>
+        <v>1777.84329079206</v>
       </c>
       <c r="U25" t="n">
-        <v>1622.1564738442</v>
+        <v>1777.84329079206</v>
       </c>
       <c r="V25" t="n">
-        <v>1340.445006452229</v>
+        <v>1496.131823400089</v>
       </c>
       <c r="W25" t="n">
-        <v>1340.445006452229</v>
+        <v>1221.279419572602</v>
       </c>
       <c r="X25" t="n">
-        <v>1340.445006452229</v>
+        <v>1221.279419572602</v>
       </c>
       <c r="Y25" t="n">
-        <v>1114.102238141971</v>
+        <v>994.936651262344</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>689.7120747906183</v>
+        <v>1363.405002758605</v>
       </c>
       <c r="C26" t="n">
-        <v>689.7120747906183</v>
+        <v>1363.405002758605</v>
       </c>
       <c r="D26" t="n">
-        <v>266.4194539756186</v>
+        <v>1147.894201708378</v>
       </c>
       <c r="E26" t="n">
-        <v>266.4194539756186</v>
+        <v>1147.894201708378</v>
       </c>
       <c r="F26" t="n">
-        <v>266.4194539756186</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="G26" t="n">
-        <v>43.43032702581019</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="H26" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I26" t="n">
-        <v>86.09345146672851</v>
+        <v>86.09345146672854</v>
       </c>
       <c r="J26" t="n">
-        <v>226.1880352922991</v>
+        <v>226.1880352922993</v>
       </c>
       <c r="K26" t="n">
-        <v>444.3985098873429</v>
+        <v>444.3985098873431</v>
       </c>
       <c r="L26" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144766</v>
       </c>
       <c r="M26" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N26" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O26" t="n">
         <v>1651.903250255482</v>
       </c>
       <c r="P26" t="n">
-        <v>1901.41298331237</v>
+        <v>1901.412983312371</v>
       </c>
       <c r="Q26" t="n">
-        <v>2080.956330428338</v>
+        <v>2080.956330428339</v>
       </c>
       <c r="R26" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S26" t="n">
-        <v>2113.505005925657</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="T26" t="n">
-        <v>2113.505005925657</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="U26" t="n">
-        <v>1855.312838196275</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="V26" t="n">
-        <v>1497.823423322524</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="W26" t="n">
-        <v>1101.432073622871</v>
+        <v>1775.125001590857</v>
       </c>
       <c r="X26" t="n">
-        <v>689.7120747906183</v>
+        <v>1363.405002758605</v>
       </c>
       <c r="Y26" t="n">
-        <v>689.7120747906183</v>
+        <v>1363.405002758605</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>954.62808601619</v>
+        <v>598.9534360708841</v>
       </c>
       <c r="C27" t="n">
-        <v>837.1221825336947</v>
+        <v>481.4475325883889</v>
       </c>
       <c r="D27" t="n">
-        <v>733.2822240489797</v>
+        <v>377.6075741036739</v>
       </c>
       <c r="E27" t="n">
-        <v>628.580290321917</v>
+        <v>272.9056403766111</v>
       </c>
       <c r="F27" t="n">
-        <v>534.9344600048212</v>
+        <v>179.2598100595152</v>
       </c>
       <c r="G27" t="n">
-        <v>441.9691191248511</v>
+        <v>86.29446917954515</v>
       </c>
       <c r="H27" t="n">
-        <v>399.1049769711162</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I27" t="n">
-        <v>443.2803626989092</v>
+        <v>64.14840690919141</v>
       </c>
       <c r="J27" t="n">
-        <v>523.6618369509279</v>
+        <v>144.5298811612101</v>
       </c>
       <c r="K27" t="n">
-        <v>673.7467384382778</v>
+        <v>294.6147826485602</v>
       </c>
       <c r="L27" t="n">
-        <v>883.0818230529674</v>
+        <v>503.9498672632499</v>
       </c>
       <c r="M27" t="n">
-        <v>1345.721349711886</v>
+        <v>751.3795283885237</v>
       </c>
       <c r="N27" t="n">
-        <v>1602.04114251602</v>
+        <v>1007.699321192657</v>
       </c>
       <c r="O27" t="n">
-        <v>1832.912960075829</v>
+        <v>1238.571138752467</v>
       </c>
       <c r="P27" t="n">
-        <v>2015.066324422021</v>
+        <v>1420.72450309866</v>
       </c>
       <c r="Q27" t="n">
-        <v>2128.719155173029</v>
+        <v>1773.044505227723</v>
       </c>
       <c r="R27" t="n">
-        <v>2171.51635129051</v>
+        <v>1815.841701345204</v>
       </c>
       <c r="S27" t="n">
-        <v>2110.409230482351</v>
+        <v>1754.734580537045</v>
       </c>
       <c r="T27" t="n">
-        <v>1972.916435127965</v>
+        <v>1617.241785182659</v>
       </c>
       <c r="U27" t="n">
-        <v>1788.219846343814</v>
+        <v>1432.545196398508</v>
       </c>
       <c r="V27" t="n">
-        <v>1583.24670748308</v>
+        <v>1227.572057537774</v>
       </c>
       <c r="W27" t="n">
-        <v>1386.725330316297</v>
+        <v>1031.050680370992</v>
       </c>
       <c r="X27" t="n">
-        <v>1223.24798408296</v>
+        <v>867.5733341376545</v>
       </c>
       <c r="Y27" t="n">
-        <v>1083.555095436253</v>
+        <v>727.8804454909468</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>747.9404270300605</v>
+        <v>845.9556138872177</v>
       </c>
       <c r="C28" t="n">
-        <v>575.9678639089765</v>
+        <v>673.9830507661337</v>
       </c>
       <c r="D28" t="n">
-        <v>575.9678639089765</v>
+        <v>510.6662778929044</v>
       </c>
       <c r="E28" t="n">
-        <v>409.75965806183</v>
+        <v>344.4580720457579</v>
       </c>
       <c r="F28" t="n">
-        <v>237.8978838363904</v>
+        <v>344.4580720457579</v>
       </c>
       <c r="G28" t="n">
         <v>179.1136062458203</v>
       </c>
       <c r="H28" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I28" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="J28" t="n">
-        <v>164.1518522719319</v>
+        <v>86.23013562371113</v>
       </c>
       <c r="K28" t="n">
-        <v>247.303481619848</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L28" t="n">
-        <v>734.9575247989537</v>
+        <v>572.3677636523942</v>
       </c>
       <c r="M28" t="n">
-        <v>852.8004955041094</v>
+        <v>1103.746214820372</v>
       </c>
       <c r="N28" t="n">
-        <v>1367.151194559484</v>
+        <v>1618.096913875746</v>
       </c>
       <c r="O28" t="n">
-        <v>1570.860832459528</v>
+        <v>1722.234329837428</v>
       </c>
       <c r="P28" t="n">
-        <v>1969.627016373226</v>
+        <v>2121.000513751126</v>
       </c>
       <c r="Q28" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="R28" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S28" t="n">
-        <v>2011.274638730567</v>
+        <v>2024.603390472303</v>
       </c>
       <c r="T28" t="n">
-        <v>1771.834171281378</v>
+        <v>1785.162923023114</v>
       </c>
       <c r="U28" t="n">
-        <v>1491.699495722</v>
+        <v>1505.028247463736</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.699495722</v>
+        <v>1505.028247463736</v>
       </c>
       <c r="W28" t="n">
-        <v>1216.847091894513</v>
+        <v>1505.028247463736</v>
       </c>
       <c r="X28" t="n">
-        <v>974.2831953403185</v>
+        <v>1262.464350909541</v>
       </c>
       <c r="Y28" t="n">
-        <v>747.9404270300605</v>
+        <v>1036.121582599283</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1751.66798699898</v>
+        <v>1298.612788347634</v>
       </c>
       <c r="C29" t="n">
-        <v>1571.186822523377</v>
+        <v>871.7120583609337</v>
       </c>
       <c r="D29" t="n">
-        <v>1147.894201708378</v>
+        <v>871.7120583609337</v>
       </c>
       <c r="E29" t="n">
-        <v>1147.894201708378</v>
+        <v>445.7351185087913</v>
       </c>
       <c r="F29" t="n">
-        <v>722.7700198977777</v>
+        <v>445.7351185087913</v>
       </c>
       <c r="G29" t="n">
-        <v>320.4652284147966</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="H29" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="I29" t="n">
-        <v>86.09345146672851</v>
+        <v>86.09345146672854</v>
       </c>
       <c r="J29" t="n">
-        <v>226.1880352922991</v>
+        <v>226.1880352922993</v>
       </c>
       <c r="K29" t="n">
-        <v>444.3985098873429</v>
+        <v>444.3985098873431</v>
       </c>
       <c r="L29" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144766</v>
       </c>
       <c r="M29" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N29" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O29" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255483</v>
       </c>
       <c r="P29" t="n">
-        <v>1901.41298331237</v>
+        <v>1901.412983312371</v>
       </c>
       <c r="Q29" t="n">
-        <v>2080.956330428338</v>
+        <v>2080.95633042834</v>
       </c>
       <c r="R29" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S29" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="T29" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="U29" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="V29" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="W29" t="n">
-        <v>2171.51635129051</v>
+        <v>1775.125001590858</v>
       </c>
       <c r="X29" t="n">
-        <v>2171.51635129051</v>
+        <v>1718.461152639164</v>
       </c>
       <c r="Y29" t="n">
-        <v>2171.51635129051</v>
+        <v>1718.461152639164</v>
       </c>
     </row>
     <row r="30">
@@ -6533,31 +6533,31 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G30" t="n">
-        <v>86.29446917954513</v>
+        <v>86.29446917954516</v>
       </c>
       <c r="H30" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="I30" t="n">
-        <v>64.14840690919138</v>
+        <v>64.14840690919142</v>
       </c>
       <c r="J30" t="n">
         <v>144.5298811612101</v>
       </c>
       <c r="K30" t="n">
-        <v>294.6147826485601</v>
+        <v>294.6147826485602</v>
       </c>
       <c r="L30" t="n">
-        <v>503.9498672632496</v>
+        <v>503.9498672632499</v>
       </c>
       <c r="M30" t="n">
-        <v>751.3795283885233</v>
+        <v>751.3795283885237</v>
       </c>
       <c r="N30" t="n">
-        <v>1007.699321192657</v>
+        <v>1246.366492570713</v>
       </c>
       <c r="O30" t="n">
-        <v>1477.238310130524</v>
+        <v>1477.238310130523</v>
       </c>
       <c r="P30" t="n">
         <v>1659.391674476716</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>746.3101379305284</v>
+        <v>710.1615457715633</v>
       </c>
       <c r="C31" t="n">
-        <v>746.3101379305284</v>
+        <v>710.1615457715633</v>
       </c>
       <c r="D31" t="n">
-        <v>582.9933650572991</v>
+        <v>546.844772898334</v>
       </c>
       <c r="E31" t="n">
-        <v>416.7851592101527</v>
+        <v>380.6365670511875</v>
       </c>
       <c r="F31" t="n">
-        <v>416.7851592101527</v>
+        <v>208.7747928257479</v>
       </c>
       <c r="G31" t="n">
-        <v>251.440693410215</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="H31" t="n">
-        <v>115.7574141902049</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="I31" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="J31" t="n">
-        <v>164.1518522719319</v>
+        <v>164.151852271932</v>
       </c>
       <c r="K31" t="n">
-        <v>247.303481619848</v>
+        <v>494.5860907338701</v>
       </c>
       <c r="L31" t="n">
-        <v>734.9575247989537</v>
+        <v>605.8512403218109</v>
       </c>
       <c r="M31" t="n">
-        <v>1266.335975966931</v>
+        <v>1137.229691489788</v>
       </c>
       <c r="N31" t="n">
-        <v>1553.15079414585</v>
+        <v>1651.580390545163</v>
       </c>
       <c r="O31" t="n">
-        <v>2034.990534410735</v>
+        <v>2034.990534410737</v>
       </c>
       <c r="P31" t="n">
-        <v>2121.000513751125</v>
+        <v>2121.000513751127</v>
       </c>
       <c r="Q31" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="R31" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S31" t="n">
-        <v>2011.274638730567</v>
+        <v>2017.28375824125</v>
       </c>
       <c r="T31" t="n">
-        <v>1771.834171281378</v>
+        <v>1777.843290792061</v>
       </c>
       <c r="U31" t="n">
-        <v>1771.834171281378</v>
+        <v>1497.708615232683</v>
       </c>
       <c r="V31" t="n">
-        <v>1490.122703889407</v>
+        <v>1369.234179348082</v>
       </c>
       <c r="W31" t="n">
-        <v>1405.382771507047</v>
+        <v>1369.234179348082</v>
       </c>
       <c r="X31" t="n">
-        <v>1162.818874952852</v>
+        <v>1126.670282793887</v>
       </c>
       <c r="Y31" t="n">
-        <v>936.476106642594</v>
+        <v>900.3275144836289</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1298.612788347634</v>
+        <v>871.7120583609337</v>
       </c>
       <c r="C32" t="n">
         <v>871.7120583609337</v>
@@ -6691,61 +6691,61 @@
         <v>445.7351185087913</v>
       </c>
       <c r="G32" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581022</v>
       </c>
       <c r="H32" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581022</v>
       </c>
       <c r="I32" t="n">
-        <v>86.09345146672848</v>
+        <v>86.09345146672831</v>
       </c>
       <c r="J32" t="n">
-        <v>226.1880352922991</v>
+        <v>226.1880352922992</v>
       </c>
       <c r="K32" t="n">
-        <v>444.3985098873425</v>
+        <v>444.3985098873432</v>
       </c>
       <c r="L32" t="n">
-        <v>721.104435414476</v>
+        <v>721.1044354144767</v>
       </c>
       <c r="M32" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N32" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O32" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255483</v>
       </c>
       <c r="P32" t="n">
-        <v>1901.41298331237</v>
+        <v>1901.412983312371</v>
       </c>
       <c r="Q32" t="n">
-        <v>2080.956330428338</v>
+        <v>2080.95633042834</v>
       </c>
       <c r="R32" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S32" t="n">
-        <v>2113.505005925657</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="T32" t="n">
-        <v>1901.484455955729</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="U32" t="n">
-        <v>1901.484455955729</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="V32" t="n">
-        <v>1543.995041081978</v>
+        <v>2093.289042397227</v>
       </c>
       <c r="W32" t="n">
-        <v>1543.995041081978</v>
+        <v>1696.897692697573</v>
       </c>
       <c r="X32" t="n">
-        <v>1543.995041081978</v>
+        <v>1696.897692697573</v>
       </c>
       <c r="Y32" t="n">
-        <v>1543.995041081978</v>
+        <v>1291.560422652464</v>
       </c>
     </row>
     <row r="33">
@@ -6770,31 +6770,31 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G33" t="n">
-        <v>86.29446917954513</v>
+        <v>86.29446917954516</v>
       </c>
       <c r="H33" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581022</v>
       </c>
       <c r="I33" t="n">
-        <v>64.14840690919138</v>
+        <v>64.14840690919142</v>
       </c>
       <c r="J33" t="n">
         <v>144.5298811612101</v>
       </c>
       <c r="K33" t="n">
-        <v>294.6147826485601</v>
+        <v>533.2819540266163</v>
       </c>
       <c r="L33" t="n">
-        <v>503.9498672632496</v>
+        <v>742.617038641306</v>
       </c>
       <c r="M33" t="n">
-        <v>751.3795283885233</v>
+        <v>990.0466997665798</v>
       </c>
       <c r="N33" t="n">
-        <v>1007.699321192657</v>
+        <v>1246.366492570713</v>
       </c>
       <c r="O33" t="n">
-        <v>1238.571138752467</v>
+        <v>1477.238310130523</v>
       </c>
       <c r="P33" t="n">
         <v>1659.391674476716</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>679.7474080400713</v>
+        <v>1017.817388112657</v>
       </c>
       <c r="C34" t="n">
-        <v>507.7748449189872</v>
+        <v>845.8448249915733</v>
       </c>
       <c r="D34" t="n">
-        <v>344.4580720457579</v>
+        <v>682.528052118344</v>
       </c>
       <c r="E34" t="n">
-        <v>344.4580720457579</v>
+        <v>516.3198462711975</v>
       </c>
       <c r="F34" t="n">
         <v>344.4580720457579</v>
@@ -6852,58 +6852,58 @@
         <v>179.1136062458203</v>
       </c>
       <c r="H34" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581022</v>
       </c>
       <c r="I34" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581022</v>
       </c>
       <c r="J34" t="n">
-        <v>86.23013562371108</v>
+        <v>164.151852271932</v>
       </c>
       <c r="K34" t="n">
-        <v>416.6643740856492</v>
+        <v>494.5860907338701</v>
       </c>
       <c r="L34" t="n">
-        <v>904.318417264755</v>
+        <v>982.2401339129759</v>
       </c>
       <c r="M34" t="n">
-        <v>1435.696868432733</v>
+        <v>1501.779137662253</v>
       </c>
       <c r="N34" t="n">
-        <v>1552.014644646227</v>
+        <v>1618.096913875747</v>
       </c>
       <c r="O34" t="n">
-        <v>1656.152060607908</v>
+        <v>1722.234329837429</v>
       </c>
       <c r="P34" t="n">
-        <v>1969.627016373226</v>
+        <v>2121.000513751127</v>
       </c>
       <c r="Q34" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="R34" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S34" t="n">
-        <v>2133.247588452643</v>
+        <v>2054.808831502906</v>
       </c>
       <c r="T34" t="n">
-        <v>1893.807121003454</v>
+        <v>1815.368364053717</v>
       </c>
       <c r="U34" t="n">
-        <v>1613.672445444077</v>
+        <v>1535.233688494339</v>
       </c>
       <c r="V34" t="n">
-        <v>1613.672445444077</v>
+        <v>1535.233688494339</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.82004161659</v>
+        <v>1260.381284666852</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.256145062395</v>
+        <v>1017.817388112657</v>
       </c>
       <c r="Y34" t="n">
-        <v>869.9133767521369</v>
+        <v>1017.817388112657</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>43.43032702581021</v>
+        <v>1539.647437029053</v>
       </c>
       <c r="C35" t="n">
-        <v>43.43032702581021</v>
+        <v>1539.647437029053</v>
       </c>
       <c r="D35" t="n">
-        <v>43.43032702581021</v>
+        <v>1116.354816214053</v>
       </c>
       <c r="E35" t="n">
-        <v>43.43032702581021</v>
+        <v>1116.354816214053</v>
       </c>
       <c r="F35" t="n">
-        <v>43.43032702581021</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="G35" t="n">
-        <v>43.43032702581021</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="H35" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="I35" t="n">
         <v>86.09345146672831</v>
@@ -6940,13 +6940,13 @@
         <v>226.188035292299</v>
       </c>
       <c r="K35" t="n">
-        <v>444.3985098873428</v>
+        <v>444.3985098873429</v>
       </c>
       <c r="L35" t="n">
-        <v>721.1044354144763</v>
+        <v>721.1044354144765</v>
       </c>
       <c r="M35" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N35" t="n">
         <v>1352.989294408674</v>
@@ -6958,31 +6958,31 @@
         <v>1901.412983312371</v>
       </c>
       <c r="Q35" t="n">
-        <v>2080.956330428339</v>
+        <v>2080.95633042834</v>
       </c>
       <c r="R35" t="n">
         <v>2171.516351290511</v>
       </c>
       <c r="S35" t="n">
-        <v>2113.505005925658</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="T35" t="n">
-        <v>2113.505005925658</v>
+        <v>1959.495801320583</v>
       </c>
       <c r="U35" t="n">
-        <v>1855.312838196276</v>
+        <v>1959.495801320583</v>
       </c>
       <c r="V35" t="n">
-        <v>1497.823423322525</v>
+        <v>1959.495801320583</v>
       </c>
       <c r="W35" t="n">
-        <v>1101.432073622872</v>
+        <v>1959.495801320583</v>
       </c>
       <c r="X35" t="n">
-        <v>868.61596136245</v>
+        <v>1959.495801320583</v>
       </c>
       <c r="Y35" t="n">
-        <v>463.2786913173403</v>
+        <v>1959.495801320583</v>
       </c>
     </row>
     <row r="36">
@@ -7007,31 +7007,31 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G36" t="n">
-        <v>86.29446917954515</v>
+        <v>86.29446917954516</v>
       </c>
       <c r="H36" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="I36" t="n">
-        <v>64.14840690919139</v>
+        <v>87.60571275360327</v>
       </c>
       <c r="J36" t="n">
-        <v>144.5298811612101</v>
+        <v>383.1970525392662</v>
       </c>
       <c r="K36" t="n">
-        <v>294.6147826485601</v>
+        <v>533.2819540266163</v>
       </c>
       <c r="L36" t="n">
-        <v>503.9498672632496</v>
+        <v>742.617038641306</v>
       </c>
       <c r="M36" t="n">
-        <v>751.3795283885233</v>
+        <v>990.0466997665798</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.366492570714</v>
+        <v>1246.366492570713</v>
       </c>
       <c r="O36" t="n">
-        <v>1477.238310130524</v>
+        <v>1477.238310130523</v>
       </c>
       <c r="P36" t="n">
         <v>1659.391674476716</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.8277024038229</v>
+        <v>845.8448249915733</v>
       </c>
       <c r="C37" t="n">
-        <v>754.8551392827388</v>
+        <v>845.8448249915733</v>
       </c>
       <c r="D37" t="n">
-        <v>754.8551392827388</v>
+        <v>682.528052118344</v>
       </c>
       <c r="E37" t="n">
-        <v>588.6469334355924</v>
+        <v>516.3198462711975</v>
       </c>
       <c r="F37" t="n">
-        <v>416.7851592101528</v>
+        <v>344.4580720457579</v>
       </c>
       <c r="G37" t="n">
-        <v>251.440693410215</v>
+        <v>179.1136062458203</v>
       </c>
       <c r="H37" t="n">
-        <v>115.757414190205</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="I37" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="J37" t="n">
-        <v>86.23013562371111</v>
+        <v>164.151852271932</v>
       </c>
       <c r="K37" t="n">
-        <v>416.6643740856492</v>
+        <v>396.1564943345586</v>
       </c>
       <c r="L37" t="n">
-        <v>527.92952367359</v>
+        <v>507.4216439224995</v>
       </c>
       <c r="M37" t="n">
-        <v>1059.307974841568</v>
+        <v>1038.800095090477</v>
       </c>
       <c r="N37" t="n">
-        <v>1573.658673896942</v>
+        <v>1553.150794145852</v>
       </c>
       <c r="O37" t="n">
-        <v>2034.990534410736</v>
+        <v>2034.990534410737</v>
       </c>
       <c r="P37" t="n">
-        <v>2121.000513751126</v>
+        <v>2121.000513751127</v>
       </c>
       <c r="Q37" t="n">
         <v>2171.516351290511</v>
       </c>
       <c r="R37" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S37" t="n">
-        <v>2011.274638730568</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="T37" t="n">
-        <v>1771.834171281379</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="U37" t="n">
-        <v>1491.699495722001</v>
+        <v>1891.381675731134</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.98802833003</v>
+        <v>1609.670208339163</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.98802833003</v>
+        <v>1504.917458568092</v>
       </c>
       <c r="X37" t="n">
-        <v>1116.993671115888</v>
+        <v>1262.353562013897</v>
       </c>
       <c r="Y37" t="n">
-        <v>1116.993671115888</v>
+        <v>1036.010793703639</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1295.004679175933</v>
+        <v>1346.330716953872</v>
       </c>
       <c r="C38" t="n">
-        <v>1295.004679175933</v>
+        <v>919.429986967172</v>
       </c>
       <c r="D38" t="n">
-        <v>871.7120583609337</v>
+        <v>496.1373661521723</v>
       </c>
       <c r="E38" t="n">
         <v>445.7351185087913</v>
@@ -7165,37 +7165,37 @@
         <v>445.7351185087913</v>
       </c>
       <c r="G38" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="H38" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="I38" t="n">
         <v>86.09345146672877</v>
       </c>
       <c r="J38" t="n">
-        <v>226.1880352922994</v>
+        <v>226.1880352922997</v>
       </c>
       <c r="K38" t="n">
-        <v>444.3985098873432</v>
+        <v>444.3985098873434</v>
       </c>
       <c r="L38" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144768</v>
       </c>
       <c r="M38" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N38" t="n">
         <v>1352.989294408674</v>
       </c>
       <c r="O38" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255483</v>
       </c>
       <c r="P38" t="n">
-        <v>1901.41298331237</v>
+        <v>1901.412983312371</v>
       </c>
       <c r="Q38" t="n">
-        <v>2080.956330428339</v>
+        <v>2080.95633042834</v>
       </c>
       <c r="R38" t="n">
         <v>2171.516351290511</v>
@@ -7210,16 +7210,16 @@
         <v>2171.516351290511</v>
       </c>
       <c r="V38" t="n">
-        <v>1814.02693641676</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="W38" t="n">
-        <v>1714.853043467464</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="X38" t="n">
-        <v>1714.853043467464</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="Y38" t="n">
-        <v>1714.853043467464</v>
+        <v>1766.179081245402</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G39" t="n">
-        <v>86.29446917954515</v>
+        <v>86.29446917954516</v>
       </c>
       <c r="H39" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="I39" t="n">
-        <v>64.14840690919139</v>
+        <v>64.14840690919142</v>
       </c>
       <c r="J39" t="n">
         <v>144.5298811612101</v>
       </c>
       <c r="K39" t="n">
-        <v>294.6147826485601</v>
+        <v>294.6147826485602</v>
       </c>
       <c r="L39" t="n">
-        <v>637.1615383564006</v>
+        <v>503.9498672632499</v>
       </c>
       <c r="M39" t="n">
-        <v>884.5911994816743</v>
+        <v>751.3795283885237</v>
       </c>
       <c r="N39" t="n">
-        <v>1140.910992285808</v>
+        <v>1246.366492570713</v>
       </c>
       <c r="O39" t="n">
-        <v>1371.782809845618</v>
+        <v>1477.238310130523</v>
       </c>
       <c r="P39" t="n">
-        <v>1553.93617419181</v>
+        <v>1659.391674476716</v>
       </c>
       <c r="Q39" t="n">
-        <v>1667.589004942817</v>
+        <v>1773.044505227723</v>
       </c>
       <c r="R39" t="n">
         <v>1815.841701345204</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>918.2827010516125</v>
+        <v>753.9495465407434</v>
       </c>
       <c r="C40" t="n">
-        <v>746.3101379305285</v>
+        <v>581.9769834196594</v>
       </c>
       <c r="D40" t="n">
-        <v>582.9933650572992</v>
+        <v>418.6602105464301</v>
       </c>
       <c r="E40" t="n">
-        <v>416.7851592101528</v>
+        <v>418.6602105464301</v>
       </c>
       <c r="F40" t="n">
-        <v>416.7851592101528</v>
+        <v>344.4580720457579</v>
       </c>
       <c r="G40" t="n">
-        <v>251.440693410215</v>
+        <v>179.1136062458203</v>
       </c>
       <c r="H40" t="n">
-        <v>115.757414190205</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="I40" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="J40" t="n">
-        <v>164.1518522719319</v>
+        <v>164.151852271932</v>
       </c>
       <c r="K40" t="n">
-        <v>494.58609073387</v>
+        <v>494.5860907338701</v>
       </c>
       <c r="L40" t="n">
-        <v>982.2401339129758</v>
+        <v>605.8512403218109</v>
       </c>
       <c r="M40" t="n">
-        <v>1265.128922015781</v>
+        <v>952.3727174424736</v>
       </c>
       <c r="N40" t="n">
-        <v>1779.479621071155</v>
+        <v>1466.723416497848</v>
       </c>
       <c r="O40" t="n">
-        <v>1883.617037032837</v>
+        <v>1570.86083245953</v>
       </c>
       <c r="P40" t="n">
-        <v>1969.627016373227</v>
+        <v>1969.627016373228</v>
       </c>
       <c r="Q40" t="n">
         <v>2171.516351290511</v>
       </c>
       <c r="R40" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S40" t="n">
-        <v>2011.274638730568</v>
+        <v>2017.28375824125</v>
       </c>
       <c r="T40" t="n">
-        <v>1771.834171281379</v>
+        <v>1777.843290792061</v>
       </c>
       <c r="U40" t="n">
-        <v>1771.834171281379</v>
+        <v>1497.708615232683</v>
       </c>
       <c r="V40" t="n">
-        <v>1577.355334628131</v>
+        <v>1497.708615232683</v>
       </c>
       <c r="W40" t="n">
-        <v>1577.355334628131</v>
+        <v>1222.856211405196</v>
       </c>
       <c r="X40" t="n">
-        <v>1334.791438073936</v>
+        <v>980.2923148510014</v>
       </c>
       <c r="Y40" t="n">
-        <v>1108.448669763678</v>
+        <v>753.9495465407434</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>538.219368421965</v>
+        <v>1295.004679175933</v>
       </c>
       <c r="C41" t="n">
-        <v>111.3186384352651</v>
+        <v>1295.004679175933</v>
       </c>
       <c r="D41" t="n">
-        <v>43.43032702581021</v>
+        <v>871.7120583609337</v>
       </c>
       <c r="E41" t="n">
-        <v>43.43032702581021</v>
+        <v>445.7351185087913</v>
       </c>
       <c r="F41" t="n">
-        <v>43.43032702581021</v>
+        <v>445.7351185087913</v>
       </c>
       <c r="G41" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="H41" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="I41" t="n">
         <v>86.09345146672854</v>
       </c>
       <c r="J41" t="n">
-        <v>226.1880352922997</v>
+        <v>226.1880352922992</v>
       </c>
       <c r="K41" t="n">
-        <v>444.3985098873434</v>
+        <v>444.3985098873431</v>
       </c>
       <c r="L41" t="n">
-        <v>721.1044354144769</v>
+        <v>721.1044354144767</v>
       </c>
       <c r="M41" t="n">
         <v>1034.139376672044</v>
@@ -7432,7 +7432,7 @@
         <v>1901.412983312371</v>
       </c>
       <c r="Q41" t="n">
-        <v>2080.956330428339</v>
+        <v>2080.95633042834</v>
       </c>
       <c r="R41" t="n">
         <v>2171.516351290511</v>
@@ -7447,16 +7447,16 @@
         <v>2171.516351290511</v>
       </c>
       <c r="V41" t="n">
-        <v>2171.516351290511</v>
+        <v>1814.026936416761</v>
       </c>
       <c r="W41" t="n">
-        <v>1775.125001590857</v>
+        <v>1417.635586717108</v>
       </c>
       <c r="X41" t="n">
-        <v>1363.405002758605</v>
+        <v>1417.635586717108</v>
       </c>
       <c r="Y41" t="n">
-        <v>958.067732713495</v>
+        <v>1417.635586717108</v>
       </c>
     </row>
     <row r="42">
@@ -7481,25 +7481,25 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G42" t="n">
-        <v>86.29446917954515</v>
+        <v>86.29446917954516</v>
       </c>
       <c r="H42" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="I42" t="n">
-        <v>64.14840690919141</v>
+        <v>64.14840690919142</v>
       </c>
       <c r="J42" t="n">
         <v>144.5298811612101</v>
       </c>
       <c r="K42" t="n">
-        <v>294.6147826485601</v>
+        <v>294.6147826485602</v>
       </c>
       <c r="L42" t="n">
-        <v>503.9498672632496</v>
+        <v>503.9498672632499</v>
       </c>
       <c r="M42" t="n">
-        <v>751.3795283885233</v>
+        <v>751.3795283885237</v>
       </c>
       <c r="N42" t="n">
         <v>1007.699321192657</v>
@@ -7508,7 +7508,7 @@
         <v>1477.238310130523</v>
       </c>
       <c r="P42" t="n">
-        <v>1659.391674476716</v>
+        <v>1659.391674476715</v>
       </c>
       <c r="Q42" t="n">
         <v>1773.044505227723</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1090.144475277052</v>
+        <v>715.9259030455008</v>
       </c>
       <c r="C43" t="n">
-        <v>918.1719121559681</v>
+        <v>543.9533399244168</v>
       </c>
       <c r="D43" t="n">
-        <v>754.8551392827388</v>
+        <v>380.6365670511875</v>
       </c>
       <c r="E43" t="n">
-        <v>588.6469334355924</v>
+        <v>380.6365670511875</v>
       </c>
       <c r="F43" t="n">
-        <v>416.7851592101528</v>
+        <v>208.7747928257479</v>
       </c>
       <c r="G43" t="n">
-        <v>251.440693410215</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="H43" t="n">
-        <v>115.757414190205</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="I43" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="J43" t="n">
-        <v>86.23013562371111</v>
+        <v>86.23013562371116</v>
       </c>
       <c r="K43" t="n">
-        <v>345.5622728461728</v>
+        <v>169.3817649716272</v>
       </c>
       <c r="L43" t="n">
-        <v>456.8274224341137</v>
+        <v>280.6469145595681</v>
       </c>
       <c r="M43" t="n">
-        <v>574.6703931392694</v>
+        <v>812.0253657275457</v>
       </c>
       <c r="N43" t="n">
-        <v>1089.021092194644</v>
+        <v>1326.37606478292</v>
       </c>
       <c r="O43" t="n">
-        <v>1570.860832459529</v>
+        <v>1722.234329837429</v>
       </c>
       <c r="P43" t="n">
-        <v>1969.627016373227</v>
+        <v>2121.000513751127</v>
       </c>
       <c r="Q43" t="n">
         <v>2171.516351290511</v>
       </c>
       <c r="R43" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S43" t="n">
-        <v>2011.274638730568</v>
+        <v>2017.28375824125</v>
       </c>
       <c r="T43" t="n">
-        <v>1771.834171281379</v>
+        <v>2017.28375824125</v>
       </c>
       <c r="U43" t="n">
-        <v>1749.217108853571</v>
+        <v>1737.149082681873</v>
       </c>
       <c r="V43" t="n">
-        <v>1749.217108853571</v>
+        <v>1455.437615289901</v>
       </c>
       <c r="W43" t="n">
-        <v>1749.217108853571</v>
+        <v>1180.585211462414</v>
       </c>
       <c r="X43" t="n">
-        <v>1506.653212299376</v>
+        <v>938.0213149082196</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.310443989118</v>
+        <v>906.0918717575664</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1959.495801320582</v>
+        <v>895.45523882311</v>
       </c>
       <c r="C44" t="n">
-        <v>1532.595071333883</v>
+        <v>468.55450883641</v>
       </c>
       <c r="D44" t="n">
-        <v>1532.595071333883</v>
+        <v>468.55450883641</v>
       </c>
       <c r="E44" t="n">
-        <v>1106.61813148174</v>
+        <v>468.55450883641</v>
       </c>
       <c r="F44" t="n">
-        <v>681.4939496711402</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="G44" t="n">
-        <v>279.1891581881591</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="H44" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="I44" t="n">
-        <v>86.09345146672854</v>
+        <v>86.0934514667286</v>
       </c>
       <c r="J44" t="n">
-        <v>226.1880352922992</v>
+        <v>226.1880352922993</v>
       </c>
       <c r="K44" t="n">
-        <v>444.398509887343</v>
+        <v>444.3985098873432</v>
       </c>
       <c r="L44" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144767</v>
       </c>
       <c r="M44" t="n">
         <v>1034.139376672044</v>
@@ -7663,13 +7663,13 @@
         <v>1352.989294408674</v>
       </c>
       <c r="O44" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255483</v>
       </c>
       <c r="P44" t="n">
-        <v>1901.41298331237</v>
+        <v>1901.412983312371</v>
       </c>
       <c r="Q44" t="n">
-        <v>2080.956330428339</v>
+        <v>2080.95633042834</v>
       </c>
       <c r="R44" t="n">
         <v>2171.516351290511</v>
@@ -7678,22 +7678,22 @@
         <v>2171.516351290511</v>
       </c>
       <c r="T44" t="n">
-        <v>1959.495801320582</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="U44" t="n">
-        <v>1959.495801320582</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="V44" t="n">
-        <v>1959.495801320582</v>
+        <v>1814.026936416761</v>
       </c>
       <c r="W44" t="n">
-        <v>1959.495801320582</v>
+        <v>1814.026936416761</v>
       </c>
       <c r="X44" t="n">
-        <v>1959.495801320582</v>
+        <v>1402.306937584508</v>
       </c>
       <c r="Y44" t="n">
-        <v>1959.495801320582</v>
+        <v>996.9696675393985</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>954.6280860161909</v>
+        <v>598.9534360708841</v>
       </c>
       <c r="C45" t="n">
-        <v>837.1221825336956</v>
+        <v>481.4475325883889</v>
       </c>
       <c r="D45" t="n">
-        <v>733.2822240489807</v>
+        <v>377.6075741036739</v>
       </c>
       <c r="E45" t="n">
-        <v>628.5802903219179</v>
+        <v>272.9056403766111</v>
       </c>
       <c r="F45" t="n">
-        <v>534.9344600048221</v>
+        <v>179.2598100595152</v>
       </c>
       <c r="G45" t="n">
-        <v>441.969119124852</v>
+        <v>86.29446917954516</v>
       </c>
       <c r="H45" t="n">
-        <v>399.1049769711171</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="I45" t="n">
-        <v>419.8230568544982</v>
+        <v>87.60571275360327</v>
       </c>
       <c r="J45" t="n">
-        <v>500.2045311065169</v>
+        <v>167.987187005622</v>
       </c>
       <c r="K45" t="n">
-        <v>650.2894325938669</v>
+        <v>318.0720884929721</v>
       </c>
       <c r="L45" t="n">
-        <v>1098.291688586613</v>
+        <v>527.4071731076617</v>
       </c>
       <c r="M45" t="n">
-        <v>1345.721349711887</v>
+        <v>990.0466997665795</v>
       </c>
       <c r="N45" t="n">
-        <v>1602.04114251602</v>
+        <v>1246.366492570713</v>
       </c>
       <c r="O45" t="n">
-        <v>1832.91296007583</v>
+        <v>1477.238310130523</v>
       </c>
       <c r="P45" t="n">
-        <v>2015.066324422022</v>
+        <v>1659.391674476715</v>
       </c>
       <c r="Q45" t="n">
-        <v>2128.71915517303</v>
+        <v>1773.044505227723</v>
       </c>
       <c r="R45" t="n">
-        <v>2171.516351290511</v>
+        <v>1815.841701345204</v>
       </c>
       <c r="S45" t="n">
-        <v>2110.409230482352</v>
+        <v>1754.734580537045</v>
       </c>
       <c r="T45" t="n">
-        <v>1972.916435127966</v>
+        <v>1617.241785182659</v>
       </c>
       <c r="U45" t="n">
-        <v>1788.219846343815</v>
+        <v>1432.545196398508</v>
       </c>
       <c r="V45" t="n">
-        <v>1583.246707483081</v>
+        <v>1227.572057537774</v>
       </c>
       <c r="W45" t="n">
-        <v>1386.725330316298</v>
+        <v>1031.050680370992</v>
       </c>
       <c r="X45" t="n">
-        <v>1223.247984082961</v>
+        <v>867.5733341376545</v>
       </c>
       <c r="Y45" t="n">
-        <v>1083.555095436254</v>
+        <v>727.8804454909468</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>716.7896430927095</v>
+        <v>718.817336019418</v>
       </c>
       <c r="C46" t="n">
-        <v>544.8170799716255</v>
+        <v>546.844772898334</v>
       </c>
       <c r="D46" t="n">
-        <v>381.5003070983962</v>
+        <v>546.844772898334</v>
       </c>
       <c r="E46" t="n">
-        <v>215.2921012512498</v>
+        <v>380.6365670511875</v>
       </c>
       <c r="F46" t="n">
-        <v>43.43032702581021</v>
+        <v>208.7747928257479</v>
       </c>
       <c r="G46" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="H46" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="I46" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581023</v>
       </c>
       <c r="J46" t="n">
         <v>164.151852271932</v>
       </c>
       <c r="K46" t="n">
-        <v>482.746643315169</v>
+        <v>494.5860907338701</v>
       </c>
       <c r="L46" t="n">
-        <v>970.4006864942747</v>
+        <v>605.8512403218109</v>
       </c>
       <c r="M46" t="n">
-        <v>1501.779137662252</v>
+        <v>1137.229691489788</v>
       </c>
       <c r="N46" t="n">
-        <v>1618.096913875746</v>
+        <v>1553.150794145852</v>
       </c>
       <c r="O46" t="n">
-        <v>1722.234329837428</v>
+        <v>2034.990534410737</v>
       </c>
       <c r="P46" t="n">
-        <v>2121.000513751126</v>
+        <v>2121.000513751127</v>
       </c>
       <c r="Q46" t="n">
         <v>2171.516351290511</v>
       </c>
       <c r="R46" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S46" t="n">
-        <v>2165.507231779829</v>
+        <v>2017.28375824125</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.996926893869</v>
+        <v>1777.843290792061</v>
       </c>
       <c r="U46" t="n">
-        <v>1689.862251334491</v>
+        <v>1652.742373423423</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.15078394252</v>
+        <v>1652.742373423423</v>
       </c>
       <c r="W46" t="n">
-        <v>1133.298380115033</v>
+        <v>1377.889969595936</v>
       </c>
       <c r="X46" t="n">
-        <v>1133.298380115033</v>
+        <v>1135.326073041742</v>
       </c>
       <c r="Y46" t="n">
-        <v>906.9556118047751</v>
+        <v>908.9833047314837</v>
       </c>
     </row>
   </sheetData>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0779508869262</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0779508869262</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>179.2868066531147</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8859,13 +8859,13 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>187.2489049861878</v>
       </c>
       <c r="Q13" t="n">
         <v>152.9025226039384</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.077950886926</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>217.3837025592377</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>316.5301801449912</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>252.851046127496</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>241.077950886926</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9324,13 +9324,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>229.065383194879</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
@@ -9339,7 +9339,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>266.5871881157442</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>241.0779508869256</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0779508869262</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>121.1139600778182</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>187.8783834205717</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9722,10 +9722,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>241.0779508869254</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0779508869262</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>229.0653831948789</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9810,13 +9810,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>381.5174992961649</v>
+        <v>378.9715551919331</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>217.3837025592373</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>241.0779508869252</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>294.667524336188</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>100.5780019579421</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10202,10 +10202,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0779508869253</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0779508869262</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10272,19 +10272,19 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
-        <v>172.2192343085097</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>381.5174992961649</v>
+        <v>282.0936645493858</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>241.0779508869254</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>241.0779508869261</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10515,7 +10515,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>405.7535687314353</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>229.7626024494215</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>217.3837025592366</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0779508869262</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>150.3565784997077</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10758,7 +10758,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>360.8024692445578</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10907,13 +10907,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>134.5572435284353</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0779508869253</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,10 +10986,10 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>166.7129468663121</v>
+        <v>230.9883903186938</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
@@ -10998,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0779508869259</v>
+        <v>241.0779508869252</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>177.9601089641876</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>381.5174992961649</v>
+        <v>294.6675243361888</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11381,10 +11381,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>241.0779508869258</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>217.3837025592364</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11457,22 +11457,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>237.8213754498192</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>302.6296226692617</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>406.2793444461872</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>140.4324149374517</v>
       </c>
       <c r="H11" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>209.9003444702288</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>163.6910211419383</v>
       </c>
       <c r="H13" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>152.3531541051533</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>175.9867593033996</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.2817435681513</v>
+        <v>315.558256401218</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U14" t="n">
         <v>255.6102460520883</v>
       </c>
       <c r="V14" t="n">
-        <v>20.22390433491211</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>77.31725636662543</v>
       </c>
       <c r="I16" t="n">
         <v>71.60381629275079</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.949028315574175</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>177.3895923919292</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>364.7757295303178</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.43123191120421</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U17" t="n">
         <v>255.6102460520883</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>380.9378147973455</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I19" t="n">
-        <v>71.60381629275081</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>38.04559520985717</v>
       </c>
       <c r="U19" t="n">
-        <v>130.0678742102804</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>339.8519476371933</v>
       </c>
       <c r="G20" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>274.2645523750966</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.4312319112042</v>
+        <v>57.43123191120419</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>356.9990754123185</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>106.3360309405379</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.949028315574161</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>186.6503228164081</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>181.8123497506573</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>108.5916807037867</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -24223,7 +24223,7 @@
         <v>398.2817435681513</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.4312319112042</v>
+        <v>57.43123191120419</v>
       </c>
       <c r="T23" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>255.6102460520883</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>47.22521736481696</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.949028315574168</v>
+        <v>5.949028315574154</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>123.2033800254036</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -24448,19 +24448,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>205.7040015671248</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>177.522507887841</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>57.43123191120419</v>
       </c>
       <c r="T26" t="n">
         <v>209.9003444702288</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>105.4945863272738</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>5.949028315574154</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>7.246435908743081</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>243.9553698559866</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.4312319112042</v>
+        <v>57.43123191120419</v>
       </c>
       <c r="T29" t="n">
         <v>209.9003444702288</v>
@@ -24742,10 +24742,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>351.5055883817524</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>5.949028315574154</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3333288037839</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>151.7046611922957</v>
       </c>
       <c r="W31" t="n">
-        <v>188.2113467306755</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>172.7214504416136</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>57.43123191120419</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U32" t="n">
         <v>255.6102460520883</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>276.4694849206616</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5.949028315574154</v>
       </c>
       <c r="S34" t="n">
-        <v>120.7532202248552</v>
+        <v>37.14982252903981</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25159,19 +25159,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>31.22399163938076</v>
       </c>
       <c r="G35" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>57.43123191120419</v>
       </c>
       <c r="T35" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>177.1148477061125</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.949028315574154</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>168.3986575158519</v>
       </c>
       <c r="X37" t="n">
-        <v>148.0738439466526</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>371.8189452866739</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.4312319112042</v>
+        <v>57.43123191120419</v>
       </c>
       <c r="T38" t="n">
         <v>209.9003444702288</v>
@@ -25450,16 +25450,16 @@
         <v>255.6102460520883</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>294.245282182853</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>96.68303936751974</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.949028315574154</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3333288037839</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>86.36030443133589</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>294.2452821828521</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>351.8502663114893</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>274.2645523750966</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.4312319112042</v>
+        <v>57.43123191120418</v>
       </c>
       <c r="T41" t="n">
         <v>209.9003444702288</v>
@@ -25687,16 +25687,16 @@
         <v>255.6102460520883</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.949028315574154</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U43" t="n">
-        <v>254.9424370002536</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>192.4691919080088</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>315.1505962194891</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,16 +25873,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H44" t="n">
-        <v>40.86330952437123</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.4312319112042</v>
+        <v>57.43123191120418</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U44" t="n">
         <v>255.6102460520883</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>134.3264464278099</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.949028315574154</v>
       </c>
       <c r="S46" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>43.49086093759647</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>153.4834206088328</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>318602.9556019181</v>
+        <v>318602.9556019182</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>318602.9556019181</v>
+        <v>318602.9556019182</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>318602.9556019181</v>
+        <v>318602.955601918</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>318602.9556019181</v>
+        <v>318602.9556019182</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>318602.9556019181</v>
+        <v>318602.9556019182</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>318602.9556019181</v>
+        <v>318602.9556019182</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>318602.9556019181</v>
+        <v>318602.9556019182</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>318602.9556019181</v>
+        <v>318602.9556019183</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>318602.9556019181</v>
+        <v>318602.9556019182</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>318602.9556019181</v>
+        <v>318602.9556019182</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>516381.4902713695</v>
+        <v>516381.4902713696</v>
       </c>
       <c r="C2" t="n">
         <v>516381.4902713696</v>
       </c>
       <c r="D2" t="n">
-        <v>516392.4779771536</v>
+        <v>516392.4779771537</v>
       </c>
       <c r="E2" t="n">
-        <v>310221.169092518</v>
+        <v>310221.1690925179</v>
       </c>
       <c r="F2" t="n">
-        <v>310221.1690925178</v>
+        <v>310221.1690925179</v>
       </c>
       <c r="G2" t="n">
         <v>310221.1690925179</v>
       </c>
       <c r="H2" t="n">
-        <v>310221.1690925179</v>
+        <v>310221.169092518</v>
       </c>
       <c r="I2" t="n">
-        <v>310221.1690925179</v>
+        <v>310221.169092518</v>
       </c>
       <c r="J2" t="n">
         <v>310221.169092518</v>
       </c>
       <c r="K2" t="n">
-        <v>310221.1690925179</v>
+        <v>310221.1690925182</v>
       </c>
       <c r="L2" t="n">
-        <v>310221.1690925179</v>
+        <v>310221.1690925181</v>
       </c>
       <c r="M2" t="n">
-        <v>310221.169092518</v>
+        <v>310221.1690925182</v>
       </c>
       <c r="N2" t="n">
-        <v>310221.169092518</v>
+        <v>310221.1690925182</v>
       </c>
       <c r="O2" t="n">
-        <v>310221.1690925179</v>
+        <v>310221.1690925181</v>
       </c>
       <c r="P2" t="n">
-        <v>310221.169092518</v>
+        <v>310221.1690925182</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>32673.69813039072</v>
       </c>
       <c r="E3" t="n">
-        <v>533917.0150263605</v>
+        <v>533917.0150263606</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>314184.0062477362</v>
       </c>
       <c r="E4" t="n">
+        <v>26064.20492522426</v>
+      </c>
+      <c r="F4" t="n">
         <v>26064.20492522425</v>
       </c>
-      <c r="F4" t="n">
-        <v>26064.20492522426</v>
-      </c>
       <c r="G4" t="n">
-        <v>26064.20492522425</v>
+        <v>26064.20492522424</v>
       </c>
       <c r="H4" t="n">
-        <v>26064.20492522425</v>
+        <v>26064.20492522424</v>
       </c>
       <c r="I4" t="n">
-        <v>26064.20492522425</v>
+        <v>26064.20492522423</v>
       </c>
       <c r="J4" t="n">
-        <v>26064.20492522424</v>
+        <v>26064.20492522423</v>
       </c>
       <c r="K4" t="n">
         <v>26064.20492522425</v>
@@ -26450,13 +26450,13 @@
         <v>26064.20492522424</v>
       </c>
       <c r="M4" t="n">
-        <v>26064.20492522426</v>
+        <v>26064.20492522425</v>
       </c>
       <c r="N4" t="n">
-        <v>26064.20492522425</v>
+        <v>26064.20492522424</v>
       </c>
       <c r="O4" t="n">
-        <v>26064.20492522425</v>
+        <v>26064.20492522424</v>
       </c>
       <c r="P4" t="n">
         <v>26064.20492522425</v>
@@ -26478,40 +26478,40 @@
         <v>34459.30828506134</v>
       </c>
       <c r="E5" t="n">
-        <v>43928.07778537245</v>
+        <v>43928.07778537246</v>
       </c>
       <c r="F5" t="n">
-        <v>43928.07778537245</v>
+        <v>43928.07778537246</v>
       </c>
       <c r="G5" t="n">
         <v>43928.07778537245</v>
       </c>
       <c r="H5" t="n">
-        <v>43928.07778537245</v>
+        <v>43928.07778537247</v>
       </c>
       <c r="I5" t="n">
-        <v>43928.07778537245</v>
+        <v>43928.07778537247</v>
       </c>
       <c r="J5" t="n">
-        <v>43928.07778537245</v>
+        <v>43928.07778537247</v>
       </c>
       <c r="K5" t="n">
-        <v>43928.07778537245</v>
+        <v>43928.07778537249</v>
       </c>
       <c r="L5" t="n">
-        <v>43928.07778537245</v>
+        <v>43928.07778537247</v>
       </c>
       <c r="M5" t="n">
-        <v>43928.07778537246</v>
+        <v>43928.07778537249</v>
       </c>
       <c r="N5" t="n">
-        <v>43928.07778537246</v>
+        <v>43928.07778537249</v>
       </c>
       <c r="O5" t="n">
-        <v>43928.07778537246</v>
+        <v>43928.07778537249</v>
       </c>
       <c r="P5" t="n">
-        <v>43928.07778537246</v>
+        <v>43928.07778537249</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155272.164627226</v>
+        <v>155250.4509857297</v>
       </c>
       <c r="C6" t="n">
-        <v>155272.1646272261</v>
+        <v>155250.4509857298</v>
       </c>
       <c r="D6" t="n">
-        <v>135075.4653139653</v>
+        <v>135053.7821938741</v>
       </c>
       <c r="E6" t="n">
-        <v>-293688.1286444392</v>
+        <v>-294282.5098447659</v>
       </c>
       <c r="F6" t="n">
-        <v>240228.8863819211</v>
+        <v>239634.5051815948</v>
       </c>
       <c r="G6" t="n">
-        <v>240228.8863819212</v>
+        <v>239634.5051815948</v>
       </c>
       <c r="H6" t="n">
-        <v>240228.8863819212</v>
+        <v>239634.5051815949</v>
       </c>
       <c r="I6" t="n">
-        <v>240228.8863819212</v>
+        <v>239634.5051815949</v>
       </c>
       <c r="J6" t="n">
-        <v>240228.8863819213</v>
+        <v>239634.5051815948</v>
       </c>
       <c r="K6" t="n">
-        <v>240228.8863819212</v>
+        <v>239634.505181595</v>
       </c>
       <c r="L6" t="n">
-        <v>240228.8863819212</v>
+        <v>239634.5051815949</v>
       </c>
       <c r="M6" t="n">
-        <v>104941.2461801712</v>
+        <v>104346.864979845</v>
       </c>
       <c r="N6" t="n">
-        <v>240228.8863819213</v>
+        <v>239634.505181595</v>
       </c>
       <c r="O6" t="n">
-        <v>240228.8863819212</v>
+        <v>239634.5051815949</v>
       </c>
       <c r="P6" t="n">
-        <v>240228.8863819213</v>
+        <v>239634.505181595</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>500.9646443007663</v>
       </c>
       <c r="F3" t="n">
-        <v>500.9646443007662</v>
+        <v>500.9646443007663</v>
       </c>
       <c r="G3" t="n">
-        <v>500.9646443007662</v>
+        <v>500.9646443007663</v>
       </c>
       <c r="H3" t="n">
-        <v>500.9646443007663</v>
+        <v>500.9646443007664</v>
       </c>
       <c r="I3" t="n">
-        <v>500.9646443007663</v>
+        <v>500.9646443007665</v>
       </c>
       <c r="J3" t="n">
-        <v>500.9646443007663</v>
+        <v>500.9646443007665</v>
       </c>
       <c r="K3" t="n">
-        <v>500.9646443007663</v>
+        <v>500.9646443007665</v>
       </c>
       <c r="L3" t="n">
-        <v>500.9646443007663</v>
+        <v>500.9646443007665</v>
       </c>
       <c r="M3" t="n">
-        <v>500.9646443007663</v>
+        <v>500.9646443007665</v>
       </c>
       <c r="N3" t="n">
-        <v>500.9646443007663</v>
+        <v>500.9646443007665</v>
       </c>
       <c r="O3" t="n">
-        <v>500.9646443007663</v>
+        <v>500.9646443007665</v>
       </c>
       <c r="P3" t="n">
-        <v>500.9646443007663</v>
+        <v>500.9646443007665</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226276</v>
       </c>
       <c r="F4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226275</v>
       </c>
       <c r="G4" t="n">
         <v>542.8790878226274</v>
       </c>
       <c r="H4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226276</v>
       </c>
       <c r="I4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226276</v>
       </c>
       <c r="J4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226276</v>
       </c>
       <c r="K4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226279</v>
       </c>
       <c r="L4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226278</v>
       </c>
       <c r="M4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226279</v>
       </c>
       <c r="N4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226279</v>
       </c>
       <c r="O4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226279</v>
       </c>
       <c r="P4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226279</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226275</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226275</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H14" t="n">
-        <v>20.62514236560892</v>
+        <v>20.62514236560893</v>
       </c>
       <c r="I14" t="n">
-        <v>77.64196763580017</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J14" t="n">
-        <v>170.929640117476</v>
+        <v>170.9296401174761</v>
       </c>
       <c r="K14" t="n">
         <v>256.1792215978838</v>
       </c>
       <c r="L14" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M14" t="n">
-        <v>353.6281732606107</v>
+        <v>353.6281732606108</v>
       </c>
       <c r="N14" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O14" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P14" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q14" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R14" t="n">
         <v>126.5074184424443</v>
@@ -32028,7 +32028,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T14" t="n">
-        <v>8.815970775584336</v>
+        <v>8.815970775584338</v>
       </c>
       <c r="U14" t="n">
         <v>0.1611142574635629</v>
@@ -32074,43 +32074,43 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I15" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J15" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K15" t="n">
-        <v>174.0001444266161</v>
+        <v>174.0001444266162</v>
       </c>
       <c r="L15" t="n">
         <v>233.9646671331079</v>
       </c>
       <c r="M15" t="n">
-        <v>273.0257311439175</v>
+        <v>273.0257311439176</v>
       </c>
       <c r="N15" t="n">
-        <v>280.2519098338786</v>
+        <v>280.2519098338787</v>
       </c>
       <c r="O15" t="n">
-        <v>256.3757458432421</v>
+        <v>256.3757458432422</v>
       </c>
       <c r="P15" t="n">
-        <v>205.7641385242147</v>
+        <v>205.7641385242148</v>
       </c>
       <c r="Q15" t="n">
         <v>137.5478774314104</v>
       </c>
       <c r="R15" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S15" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T15" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9033788667718734</v>
+        <v>0.9033788667718736</v>
       </c>
       <c r="H16" t="n">
-        <v>8.031859379117208</v>
+        <v>8.031859379117209</v>
       </c>
       <c r="I16" t="n">
-        <v>27.16706628437598</v>
+        <v>27.16706628437599</v>
       </c>
       <c r="J16" t="n">
-        <v>63.86888588077144</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K16" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L16" t="n">
         <v>134.3077998835202</v>
@@ -32177,7 +32177,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941571</v>
       </c>
       <c r="R16" t="n">
         <v>40.61919886412441</v>
@@ -32186,7 +32186,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T16" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U16" t="n">
         <v>0.04927521091482952</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H17" t="n">
-        <v>20.62514236560892</v>
+        <v>20.62514236560893</v>
       </c>
       <c r="I17" t="n">
-        <v>77.64196763580017</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J17" t="n">
-        <v>170.929640117476</v>
+        <v>170.9296401174761</v>
       </c>
       <c r="K17" t="n">
         <v>256.1792215978838</v>
       </c>
       <c r="L17" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M17" t="n">
-        <v>353.6281732606107</v>
+        <v>353.6281732606108</v>
       </c>
       <c r="N17" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O17" t="n">
-        <v>339.3242480901737</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P17" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q17" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R17" t="n">
-        <v>126.5074184424442</v>
+        <v>126.5074184424443</v>
       </c>
       <c r="S17" t="n">
-        <v>45.89238927438678</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T17" t="n">
-        <v>8.815970775584335</v>
+        <v>8.815970775584338</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1611142574635628</v>
+        <v>0.1611142574635629</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,43 +32311,43 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I18" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J18" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K18" t="n">
-        <v>174.0001444266161</v>
+        <v>174.0001444266162</v>
       </c>
       <c r="L18" t="n">
-        <v>233.9646671331078</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M18" t="n">
-        <v>273.0257311439175</v>
+        <v>273.0257311439176</v>
       </c>
       <c r="N18" t="n">
-        <v>280.2519098338786</v>
+        <v>280.2519098338787</v>
       </c>
       <c r="O18" t="n">
-        <v>256.3757458432421</v>
+        <v>256.3757458432422</v>
       </c>
       <c r="P18" t="n">
-        <v>205.7641385242147</v>
+        <v>205.7641385242148</v>
       </c>
       <c r="Q18" t="n">
         <v>137.5478774314104</v>
       </c>
       <c r="R18" t="n">
-        <v>66.90241042190235</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S18" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T18" t="n">
-        <v>4.343268944456641</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07089122325010845</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9033788667718733</v>
+        <v>0.9033788667718736</v>
       </c>
       <c r="H19" t="n">
-        <v>8.031859379117206</v>
+        <v>8.031859379117209</v>
       </c>
       <c r="I19" t="n">
-        <v>27.16706628437598</v>
+        <v>27.16706628437599</v>
       </c>
       <c r="J19" t="n">
-        <v>63.86888588077144</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K19" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L19" t="n">
         <v>134.3077998835202</v>
@@ -32405,7 +32405,7 @@
         <v>141.6087436340674</v>
       </c>
       <c r="N19" t="n">
-        <v>138.2416042215541</v>
+        <v>138.2416042215542</v>
       </c>
       <c r="O19" t="n">
         <v>127.6884965506281</v>
@@ -32414,19 +32414,19 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q19" t="n">
-        <v>75.64566128941568</v>
+        <v>75.64566128941571</v>
       </c>
       <c r="R19" t="n">
-        <v>40.6191988641244</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S19" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T19" t="n">
-        <v>3.859891521661639</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04927521091482951</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H20" t="n">
         <v>20.62514236560893</v>
       </c>
       <c r="I20" t="n">
-        <v>77.64196763580019</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J20" t="n">
         <v>170.9296401174761</v>
       </c>
       <c r="K20" t="n">
-        <v>256.1792215978838</v>
+        <v>256.1792215978839</v>
       </c>
       <c r="L20" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M20" t="n">
         <v>353.6281732606108</v>
       </c>
       <c r="N20" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O20" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P20" t="n">
-        <v>289.6053952010274</v>
+        <v>289.6053952010275</v>
       </c>
       <c r="Q20" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R20" t="n">
         <v>126.5074184424443</v>
       </c>
       <c r="S20" t="n">
-        <v>45.89238927438679</v>
+        <v>45.8923892743868</v>
       </c>
       <c r="T20" t="n">
-        <v>8.815970775584336</v>
+        <v>8.81597077558434</v>
       </c>
       <c r="U20" t="n">
         <v>0.1611142574635629</v>
@@ -32542,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.077546593401648</v>
+        <v>1.077546593401649</v>
       </c>
       <c r="H21" t="n">
         <v>10.40683157311592</v>
       </c>
       <c r="I21" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J21" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K21" t="n">
         <v>174.0001444266162</v>
       </c>
       <c r="L21" t="n">
-        <v>233.9646671331079</v>
+        <v>233.964667133108</v>
       </c>
       <c r="M21" t="n">
-        <v>273.0257311439176</v>
+        <v>273.0257311439177</v>
       </c>
       <c r="N21" t="n">
-        <v>280.2519098338787</v>
+        <v>280.2519098338788</v>
       </c>
       <c r="O21" t="n">
         <v>256.3757458432422</v>
@@ -32572,19 +32572,19 @@
         <v>205.7641385242148</v>
       </c>
       <c r="Q21" t="n">
-        <v>137.5478774314104</v>
+        <v>137.5478774314105</v>
       </c>
       <c r="R21" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S21" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T21" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9033788667718735</v>
+        <v>0.9033788667718737</v>
       </c>
       <c r="H22" t="n">
-        <v>8.031859379117209</v>
+        <v>8.031859379117211</v>
       </c>
       <c r="I22" t="n">
         <v>27.16706628437599</v>
       </c>
       <c r="J22" t="n">
-        <v>63.86888588077145</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K22" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L22" t="n">
         <v>134.3077998835202</v>
@@ -32645,25 +32645,25 @@
         <v>138.2416042215542</v>
       </c>
       <c r="O22" t="n">
-        <v>127.6884965506281</v>
+        <v>127.6884965506282</v>
       </c>
       <c r="P22" t="n">
         <v>109.2595676684818</v>
       </c>
       <c r="Q22" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941573</v>
       </c>
       <c r="R22" t="n">
-        <v>40.61919886412441</v>
+        <v>40.61919886412442</v>
       </c>
       <c r="S22" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T22" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04927521091482952</v>
+        <v>0.04927521091482953</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H23" t="n">
         <v>20.62514236560893</v>
       </c>
       <c r="I23" t="n">
-        <v>77.64196763580019</v>
+        <v>77.64196763580021</v>
       </c>
       <c r="J23" t="n">
         <v>170.9296401174761</v>
       </c>
       <c r="K23" t="n">
-        <v>256.1792215978838</v>
+        <v>256.1792215978839</v>
       </c>
       <c r="L23" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M23" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606109</v>
       </c>
       <c r="N23" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O23" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P23" t="n">
-        <v>289.6053952010274</v>
+        <v>289.6053952010275</v>
       </c>
       <c r="Q23" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R23" t="n">
         <v>126.5074184424443</v>
       </c>
       <c r="S23" t="n">
-        <v>45.89238927438679</v>
+        <v>45.89238927438681</v>
       </c>
       <c r="T23" t="n">
-        <v>8.815970775584336</v>
+        <v>8.81597077558434</v>
       </c>
       <c r="U23" t="n">
         <v>0.1611142574635629</v>
@@ -32779,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.077546593401648</v>
+        <v>1.077546593401649</v>
       </c>
       <c r="H24" t="n">
         <v>10.40683157311592</v>
       </c>
       <c r="I24" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755677</v>
       </c>
       <c r="J24" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K24" t="n">
         <v>174.0001444266162</v>
       </c>
       <c r="L24" t="n">
-        <v>233.9646671331079</v>
+        <v>233.964667133108</v>
       </c>
       <c r="M24" t="n">
-        <v>273.0257311439176</v>
+        <v>273.0257311439177</v>
       </c>
       <c r="N24" t="n">
-        <v>280.2519098338787</v>
+        <v>280.2519098338788</v>
       </c>
       <c r="O24" t="n">
         <v>256.3757458432422</v>
@@ -32809,19 +32809,19 @@
         <v>205.7641385242148</v>
       </c>
       <c r="Q24" t="n">
-        <v>137.5478774314104</v>
+        <v>137.5478774314105</v>
       </c>
       <c r="R24" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190239</v>
       </c>
       <c r="S24" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T24" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456644</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010849</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9033788667718735</v>
+        <v>0.9033788667718738</v>
       </c>
       <c r="H25" t="n">
-        <v>8.031859379117209</v>
+        <v>8.031859379117211</v>
       </c>
       <c r="I25" t="n">
         <v>27.16706628437599</v>
       </c>
       <c r="J25" t="n">
-        <v>63.86888588077145</v>
+        <v>63.86888588077148</v>
       </c>
       <c r="K25" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L25" t="n">
-        <v>134.3077998835202</v>
+        <v>134.3077998835203</v>
       </c>
       <c r="M25" t="n">
-        <v>141.6087436340674</v>
+        <v>141.6087436340675</v>
       </c>
       <c r="N25" t="n">
         <v>138.2416042215542</v>
       </c>
       <c r="O25" t="n">
-        <v>127.6884965506281</v>
+        <v>127.6884965506282</v>
       </c>
       <c r="P25" t="n">
-        <v>109.2595676684818</v>
+        <v>109.2595676684819</v>
       </c>
       <c r="Q25" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941573</v>
       </c>
       <c r="R25" t="n">
-        <v>40.61919886412441</v>
+        <v>40.61919886412443</v>
       </c>
       <c r="S25" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T25" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661642</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04927521091482952</v>
+        <v>0.04927521091482954</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H26" t="n">
         <v>20.62514236560893</v>
       </c>
       <c r="I26" t="n">
-        <v>77.64196763580019</v>
+        <v>77.64196763580021</v>
       </c>
       <c r="J26" t="n">
         <v>170.9296401174761</v>
       </c>
       <c r="K26" t="n">
-        <v>256.1792215978838</v>
+        <v>256.1792215978839</v>
       </c>
       <c r="L26" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M26" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606109</v>
       </c>
       <c r="N26" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O26" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P26" t="n">
-        <v>289.6053952010274</v>
+        <v>289.6053952010275</v>
       </c>
       <c r="Q26" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R26" t="n">
         <v>126.5074184424443</v>
       </c>
       <c r="S26" t="n">
-        <v>45.89238927438679</v>
+        <v>45.89238927438681</v>
       </c>
       <c r="T26" t="n">
-        <v>8.815970775584336</v>
+        <v>8.81597077558434</v>
       </c>
       <c r="U26" t="n">
         <v>0.1611142574635629</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.077546593401648</v>
+        <v>1.077546593401649</v>
       </c>
       <c r="H27" t="n">
         <v>10.40683157311592</v>
       </c>
       <c r="I27" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755677</v>
       </c>
       <c r="J27" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K27" t="n">
         <v>174.0001444266162</v>
       </c>
       <c r="L27" t="n">
-        <v>233.9646671331079</v>
+        <v>233.964667133108</v>
       </c>
       <c r="M27" t="n">
-        <v>273.0257311439176</v>
+        <v>273.0257311439177</v>
       </c>
       <c r="N27" t="n">
-        <v>280.2519098338787</v>
+        <v>280.2519098338788</v>
       </c>
       <c r="O27" t="n">
         <v>256.3757458432422</v>
@@ -33046,19 +33046,19 @@
         <v>205.7641385242148</v>
       </c>
       <c r="Q27" t="n">
-        <v>137.5478774314104</v>
+        <v>137.5478774314105</v>
       </c>
       <c r="R27" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190239</v>
       </c>
       <c r="S27" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T27" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456644</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010849</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9033788667718735</v>
+        <v>0.9033788667718738</v>
       </c>
       <c r="H28" t="n">
-        <v>8.031859379117209</v>
+        <v>8.031859379117211</v>
       </c>
       <c r="I28" t="n">
         <v>27.16706628437599</v>
       </c>
       <c r="J28" t="n">
-        <v>63.86888588077145</v>
+        <v>63.86888588077148</v>
       </c>
       <c r="K28" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L28" t="n">
-        <v>134.3077998835202</v>
+        <v>134.3077998835203</v>
       </c>
       <c r="M28" t="n">
-        <v>141.6087436340674</v>
+        <v>141.6087436340675</v>
       </c>
       <c r="N28" t="n">
         <v>138.2416042215542</v>
       </c>
       <c r="O28" t="n">
-        <v>127.6884965506281</v>
+        <v>127.6884965506282</v>
       </c>
       <c r="P28" t="n">
-        <v>109.2595676684818</v>
+        <v>109.2595676684819</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941573</v>
       </c>
       <c r="R28" t="n">
-        <v>40.61919886412441</v>
+        <v>40.61919886412443</v>
       </c>
       <c r="S28" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T28" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661642</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04927521091482952</v>
+        <v>0.04927521091482954</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H29" t="n">
         <v>20.62514236560893</v>
       </c>
       <c r="I29" t="n">
-        <v>77.64196763580019</v>
+        <v>77.64196763580021</v>
       </c>
       <c r="J29" t="n">
         <v>170.9296401174761</v>
       </c>
       <c r="K29" t="n">
-        <v>256.1792215978838</v>
+        <v>256.1792215978839</v>
       </c>
       <c r="L29" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M29" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606109</v>
       </c>
       <c r="N29" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O29" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P29" t="n">
-        <v>289.6053952010274</v>
+        <v>289.6053952010275</v>
       </c>
       <c r="Q29" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R29" t="n">
         <v>126.5074184424443</v>
       </c>
       <c r="S29" t="n">
-        <v>45.89238927438679</v>
+        <v>45.89238927438681</v>
       </c>
       <c r="T29" t="n">
-        <v>8.815970775584336</v>
+        <v>8.81597077558434</v>
       </c>
       <c r="U29" t="n">
         <v>0.1611142574635629</v>
@@ -33253,28 +33253,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.077546593401648</v>
+        <v>1.077546593401649</v>
       </c>
       <c r="H30" t="n">
         <v>10.40683157311592</v>
       </c>
       <c r="I30" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755677</v>
       </c>
       <c r="J30" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K30" t="n">
         <v>174.0001444266162</v>
       </c>
       <c r="L30" t="n">
-        <v>233.9646671331079</v>
+        <v>233.964667133108</v>
       </c>
       <c r="M30" t="n">
-        <v>273.0257311439176</v>
+        <v>273.0257311439177</v>
       </c>
       <c r="N30" t="n">
-        <v>280.2519098338787</v>
+        <v>280.2519098338788</v>
       </c>
       <c r="O30" t="n">
         <v>256.3757458432422</v>
@@ -33283,19 +33283,19 @@
         <v>205.7641385242148</v>
       </c>
       <c r="Q30" t="n">
-        <v>137.5478774314104</v>
+        <v>137.5478774314105</v>
       </c>
       <c r="R30" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190239</v>
       </c>
       <c r="S30" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T30" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456644</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010849</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9033788667718735</v>
+        <v>0.9033788667718738</v>
       </c>
       <c r="H31" t="n">
-        <v>8.031859379117209</v>
+        <v>8.031859379117211</v>
       </c>
       <c r="I31" t="n">
         <v>27.16706628437599</v>
       </c>
       <c r="J31" t="n">
-        <v>63.86888588077145</v>
+        <v>63.86888588077148</v>
       </c>
       <c r="K31" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L31" t="n">
-        <v>134.3077998835202</v>
+        <v>134.3077998835203</v>
       </c>
       <c r="M31" t="n">
-        <v>141.6087436340674</v>
+        <v>141.6087436340675</v>
       </c>
       <c r="N31" t="n">
         <v>138.2416042215542</v>
       </c>
       <c r="O31" t="n">
-        <v>127.6884965506281</v>
+        <v>127.6884965506282</v>
       </c>
       <c r="P31" t="n">
-        <v>109.2595676684818</v>
+        <v>109.2595676684819</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941573</v>
       </c>
       <c r="R31" t="n">
-        <v>40.61919886412441</v>
+        <v>40.61919886412443</v>
       </c>
       <c r="S31" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T31" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661642</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04927521091482952</v>
+        <v>0.04927521091482954</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H32" t="n">
         <v>20.62514236560893</v>
       </c>
       <c r="I32" t="n">
-        <v>77.64196763580019</v>
+        <v>77.64196763580021</v>
       </c>
       <c r="J32" t="n">
         <v>170.9296401174761</v>
       </c>
       <c r="K32" t="n">
-        <v>256.1792215978838</v>
+        <v>256.1792215978839</v>
       </c>
       <c r="L32" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M32" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606109</v>
       </c>
       <c r="N32" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O32" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P32" t="n">
-        <v>289.6053952010274</v>
+        <v>289.6053952010275</v>
       </c>
       <c r="Q32" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R32" t="n">
         <v>126.5074184424443</v>
       </c>
       <c r="S32" t="n">
-        <v>45.89238927438679</v>
+        <v>45.89238927438681</v>
       </c>
       <c r="T32" t="n">
-        <v>8.815970775584336</v>
+        <v>8.81597077558434</v>
       </c>
       <c r="U32" t="n">
         <v>0.1611142574635629</v>
@@ -33490,28 +33490,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.077546593401648</v>
+        <v>1.077546593401649</v>
       </c>
       <c r="H33" t="n">
         <v>10.40683157311592</v>
       </c>
       <c r="I33" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755677</v>
       </c>
       <c r="J33" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K33" t="n">
         <v>174.0001444266162</v>
       </c>
       <c r="L33" t="n">
-        <v>233.9646671331079</v>
+        <v>233.964667133108</v>
       </c>
       <c r="M33" t="n">
-        <v>273.0257311439176</v>
+        <v>273.0257311439177</v>
       </c>
       <c r="N33" t="n">
-        <v>280.2519098338787</v>
+        <v>280.2519098338788</v>
       </c>
       <c r="O33" t="n">
         <v>256.3757458432422</v>
@@ -33520,19 +33520,19 @@
         <v>205.7641385242148</v>
       </c>
       <c r="Q33" t="n">
-        <v>137.5478774314104</v>
+        <v>137.5478774314105</v>
       </c>
       <c r="R33" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190239</v>
       </c>
       <c r="S33" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T33" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456644</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010849</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9033788667718735</v>
+        <v>0.9033788667718738</v>
       </c>
       <c r="H34" t="n">
-        <v>8.031859379117209</v>
+        <v>8.031859379117211</v>
       </c>
       <c r="I34" t="n">
         <v>27.16706628437599</v>
       </c>
       <c r="J34" t="n">
-        <v>63.86888588077145</v>
+        <v>63.86888588077148</v>
       </c>
       <c r="K34" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L34" t="n">
-        <v>134.3077998835202</v>
+        <v>134.3077998835203</v>
       </c>
       <c r="M34" t="n">
-        <v>141.6087436340674</v>
+        <v>141.6087436340675</v>
       </c>
       <c r="N34" t="n">
         <v>138.2416042215542</v>
       </c>
       <c r="O34" t="n">
-        <v>127.6884965506281</v>
+        <v>127.6884965506282</v>
       </c>
       <c r="P34" t="n">
-        <v>109.2595676684818</v>
+        <v>109.2595676684819</v>
       </c>
       <c r="Q34" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941573</v>
       </c>
       <c r="R34" t="n">
-        <v>40.61919886412441</v>
+        <v>40.61919886412443</v>
       </c>
       <c r="S34" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T34" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661642</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04927521091482952</v>
+        <v>0.04927521091482954</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H35" t="n">
         <v>20.62514236560893</v>
       </c>
       <c r="I35" t="n">
-        <v>77.64196763580019</v>
+        <v>77.64196763580021</v>
       </c>
       <c r="J35" t="n">
         <v>170.9296401174761</v>
       </c>
       <c r="K35" t="n">
-        <v>256.1792215978838</v>
+        <v>256.1792215978839</v>
       </c>
       <c r="L35" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M35" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606109</v>
       </c>
       <c r="N35" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O35" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P35" t="n">
-        <v>289.6053952010274</v>
+        <v>289.6053952010275</v>
       </c>
       <c r="Q35" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R35" t="n">
         <v>126.5074184424443</v>
       </c>
       <c r="S35" t="n">
-        <v>45.89238927438679</v>
+        <v>45.89238927438681</v>
       </c>
       <c r="T35" t="n">
-        <v>8.815970775584336</v>
+        <v>8.81597077558434</v>
       </c>
       <c r="U35" t="n">
         <v>0.1611142574635629</v>
@@ -33727,28 +33727,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.077546593401648</v>
+        <v>1.077546593401649</v>
       </c>
       <c r="H36" t="n">
         <v>10.40683157311592</v>
       </c>
       <c r="I36" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755677</v>
       </c>
       <c r="J36" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K36" t="n">
         <v>174.0001444266162</v>
       </c>
       <c r="L36" t="n">
-        <v>233.9646671331079</v>
+        <v>233.964667133108</v>
       </c>
       <c r="M36" t="n">
-        <v>273.0257311439176</v>
+        <v>273.0257311439177</v>
       </c>
       <c r="N36" t="n">
-        <v>280.2519098338787</v>
+        <v>280.2519098338788</v>
       </c>
       <c r="O36" t="n">
         <v>256.3757458432422</v>
@@ -33757,19 +33757,19 @@
         <v>205.7641385242148</v>
       </c>
       <c r="Q36" t="n">
-        <v>137.5478774314104</v>
+        <v>137.5478774314105</v>
       </c>
       <c r="R36" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190239</v>
       </c>
       <c r="S36" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T36" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456644</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010849</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9033788667718735</v>
+        <v>0.9033788667718738</v>
       </c>
       <c r="H37" t="n">
-        <v>8.031859379117209</v>
+        <v>8.031859379117211</v>
       </c>
       <c r="I37" t="n">
         <v>27.16706628437599</v>
       </c>
       <c r="J37" t="n">
-        <v>63.86888588077145</v>
+        <v>63.86888588077148</v>
       </c>
       <c r="K37" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L37" t="n">
-        <v>134.3077998835202</v>
+        <v>134.3077998835203</v>
       </c>
       <c r="M37" t="n">
-        <v>141.6087436340674</v>
+        <v>141.6087436340675</v>
       </c>
       <c r="N37" t="n">
         <v>138.2416042215542</v>
       </c>
       <c r="O37" t="n">
-        <v>127.6884965506281</v>
+        <v>127.6884965506282</v>
       </c>
       <c r="P37" t="n">
-        <v>109.2595676684818</v>
+        <v>109.2595676684819</v>
       </c>
       <c r="Q37" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941573</v>
       </c>
       <c r="R37" t="n">
-        <v>40.61919886412441</v>
+        <v>40.61919886412443</v>
       </c>
       <c r="S37" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T37" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661642</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04927521091482952</v>
+        <v>0.04927521091482954</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H38" t="n">
         <v>20.62514236560893</v>
       </c>
       <c r="I38" t="n">
-        <v>77.64196763580019</v>
+        <v>77.64196763580021</v>
       </c>
       <c r="J38" t="n">
         <v>170.9296401174761</v>
       </c>
       <c r="K38" t="n">
-        <v>256.1792215978838</v>
+        <v>256.1792215978839</v>
       </c>
       <c r="L38" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M38" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606109</v>
       </c>
       <c r="N38" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O38" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P38" t="n">
-        <v>289.6053952010274</v>
+        <v>289.6053952010275</v>
       </c>
       <c r="Q38" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R38" t="n">
         <v>126.5074184424443</v>
       </c>
       <c r="S38" t="n">
-        <v>45.89238927438679</v>
+        <v>45.89238927438681</v>
       </c>
       <c r="T38" t="n">
-        <v>8.815970775584336</v>
+        <v>8.81597077558434</v>
       </c>
       <c r="U38" t="n">
         <v>0.1611142574635629</v>
@@ -33964,28 +33964,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.077546593401648</v>
+        <v>1.077546593401649</v>
       </c>
       <c r="H39" t="n">
         <v>10.40683157311592</v>
       </c>
       <c r="I39" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755677</v>
       </c>
       <c r="J39" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K39" t="n">
         <v>174.0001444266162</v>
       </c>
       <c r="L39" t="n">
-        <v>233.9646671331079</v>
+        <v>233.964667133108</v>
       </c>
       <c r="M39" t="n">
-        <v>273.0257311439176</v>
+        <v>273.0257311439177</v>
       </c>
       <c r="N39" t="n">
-        <v>280.2519098338787</v>
+        <v>280.2519098338788</v>
       </c>
       <c r="O39" t="n">
         <v>256.3757458432422</v>
@@ -33994,19 +33994,19 @@
         <v>205.7641385242148</v>
       </c>
       <c r="Q39" t="n">
-        <v>137.5478774314104</v>
+        <v>137.5478774314105</v>
       </c>
       <c r="R39" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190239</v>
       </c>
       <c r="S39" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T39" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456644</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010849</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9033788667718735</v>
+        <v>0.9033788667718738</v>
       </c>
       <c r="H40" t="n">
-        <v>8.031859379117209</v>
+        <v>8.031859379117211</v>
       </c>
       <c r="I40" t="n">
         <v>27.16706628437599</v>
       </c>
       <c r="J40" t="n">
-        <v>63.86888588077145</v>
+        <v>63.86888588077148</v>
       </c>
       <c r="K40" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L40" t="n">
-        <v>134.3077998835202</v>
+        <v>134.3077998835203</v>
       </c>
       <c r="M40" t="n">
-        <v>141.6087436340674</v>
+        <v>141.6087436340675</v>
       </c>
       <c r="N40" t="n">
         <v>138.2416042215542</v>
       </c>
       <c r="O40" t="n">
-        <v>127.6884965506281</v>
+        <v>127.6884965506282</v>
       </c>
       <c r="P40" t="n">
-        <v>109.2595676684818</v>
+        <v>109.2595676684819</v>
       </c>
       <c r="Q40" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941573</v>
       </c>
       <c r="R40" t="n">
-        <v>40.61919886412441</v>
+        <v>40.61919886412443</v>
       </c>
       <c r="S40" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T40" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661642</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04927521091482952</v>
+        <v>0.04927521091482954</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,40 +34128,40 @@
         <v>20.62514236560893</v>
       </c>
       <c r="I41" t="n">
-        <v>77.6419676358002</v>
+        <v>77.64196763580023</v>
       </c>
       <c r="J41" t="n">
-        <v>170.9296401174766</v>
+        <v>170.9296401174761</v>
       </c>
       <c r="K41" t="n">
-        <v>256.1792215978838</v>
+        <v>256.179221597884</v>
       </c>
       <c r="L41" t="n">
         <v>317.8129773085154</v>
       </c>
       <c r="M41" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606109</v>
       </c>
       <c r="N41" t="n">
-        <v>359.3502468108402</v>
+        <v>359.3502468108403</v>
       </c>
       <c r="O41" t="n">
-        <v>339.3242480901739</v>
+        <v>339.324248090174</v>
       </c>
       <c r="P41" t="n">
-        <v>289.6053952010274</v>
+        <v>289.6053952010275</v>
       </c>
       <c r="Q41" t="n">
-        <v>217.4815908833543</v>
+        <v>217.4815908833544</v>
       </c>
       <c r="R41" t="n">
         <v>126.5074184424443</v>
       </c>
       <c r="S41" t="n">
-        <v>45.89238927438679</v>
+        <v>45.89238927438682</v>
       </c>
       <c r="T41" t="n">
-        <v>8.815970775584338</v>
+        <v>8.815970775584342</v>
       </c>
       <c r="U41" t="n">
         <v>0.1611142574635629</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.077546593401648</v>
+        <v>1.077546593401649</v>
       </c>
       <c r="H42" t="n">
         <v>10.40683157311592</v>
       </c>
       <c r="I42" t="n">
-        <v>37.09974016755676</v>
+        <v>37.09974016755677</v>
       </c>
       <c r="J42" t="n">
         <v>101.8045226687058</v>
       </c>
       <c r="K42" t="n">
-        <v>174.0001444266162</v>
+        <v>174.0001444266163</v>
       </c>
       <c r="L42" t="n">
-        <v>233.9646671331079</v>
+        <v>233.964667133108</v>
       </c>
       <c r="M42" t="n">
-        <v>273.0257311439176</v>
+        <v>273.0257311439177</v>
       </c>
       <c r="N42" t="n">
-        <v>280.2519098338787</v>
+        <v>280.2519098338788</v>
       </c>
       <c r="O42" t="n">
-        <v>256.3757458432422</v>
+        <v>256.3757458432423</v>
       </c>
       <c r="P42" t="n">
         <v>205.7641385242148</v>
       </c>
       <c r="Q42" t="n">
-        <v>137.5478774314104</v>
+        <v>137.5478774314105</v>
       </c>
       <c r="R42" t="n">
-        <v>66.90241042190237</v>
+        <v>66.90241042190239</v>
       </c>
       <c r="S42" t="n">
         <v>20.01495536428061</v>
       </c>
       <c r="T42" t="n">
-        <v>4.343268944456643</v>
+        <v>4.343268944456644</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07089122325010848</v>
+        <v>0.07089122325010849</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9033788667718736</v>
+        <v>0.903378866771874</v>
       </c>
       <c r="H43" t="n">
-        <v>8.031859379117209</v>
+        <v>8.031859379117213</v>
       </c>
       <c r="I43" t="n">
-        <v>27.16706628437599</v>
+        <v>27.167066284376</v>
       </c>
       <c r="J43" t="n">
-        <v>63.86888588077147</v>
+        <v>63.86888588077149</v>
       </c>
       <c r="K43" t="n">
         <v>104.9561992485868</v>
       </c>
       <c r="L43" t="n">
-        <v>134.3077998835202</v>
+        <v>134.3077998835203</v>
       </c>
       <c r="M43" t="n">
-        <v>141.6087436340674</v>
+        <v>141.6087436340675</v>
       </c>
       <c r="N43" t="n">
         <v>138.2416042215542</v>
       </c>
       <c r="O43" t="n">
-        <v>127.6884965506281</v>
+        <v>127.6884965506282</v>
       </c>
       <c r="P43" t="n">
-        <v>109.2595676684818</v>
+        <v>109.2595676684819</v>
       </c>
       <c r="Q43" t="n">
-        <v>75.64566128941571</v>
+        <v>75.64566128941574</v>
       </c>
       <c r="R43" t="n">
-        <v>40.61919886412441</v>
+        <v>40.61919886412443</v>
       </c>
       <c r="S43" t="n">
-        <v>15.74342988728801</v>
+        <v>15.74342988728802</v>
       </c>
       <c r="T43" t="n">
-        <v>3.859891521661641</v>
+        <v>3.859891521661642</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04927521091482952</v>
+        <v>0.04927521091482955</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,40 +34365,40 @@
         <v>20.62514236560893</v>
       </c>
       <c r="I44" t="n">
-        <v>77.6419676358002</v>
+        <v>77.64196763580023</v>
       </c>
       <c r="J44" t="n">
         <v>170.9296401174761</v>
       </c>
       <c r="K44" t="n">
-        <v>256.1792215978838</v>
+        <v>256.179221597884</v>
       </c>
       <c r="L44" t="n">
         <v>317.8129773085154</v>
       </c>
       <c r="M44" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606109</v>
       </c>
       <c r="N44" t="n">
-        <v>359.3502468108402</v>
+        <v>359.3502468108403</v>
       </c>
       <c r="O44" t="n">
-        <v>339.3242480901739</v>
+        <v>339.324248090174</v>
       </c>
       <c r="P44" t="n">
-        <v>289.6053952010274</v>
+        <v>289.6053952010275</v>
       </c>
       <c r="Q44" t="n">
-        <v>217.4815908833543</v>
+        <v>217.4815908833544</v>
       </c>
       <c r="R44" t="n">
-        <v>126.5074184424443</v>
+        <v>126.5074184424447</v>
       </c>
       <c r="S44" t="n">
-        <v>45.89238927438679</v>
+        <v>45.89238927438682</v>
       </c>
       <c r="T44" t="n">
-        <v>8.815970775584338</v>
+        <v>8.815970775584342</v>
       </c>
       <c r="U44" t="n">
         <v>0.1611142574635629</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.077546593401648</v>
+        <v>1.077546593401649</v>
       </c>
       <c r="H45" t="n">
         <v>10.40683157311592</v>
       </c>
       <c r="I45" t="n">
-        <v>37.09974016755676</v>
+        <v>37.09974016755677</v>
       </c>
       <c r="J45" t="n">
         <v>101.8045226687058</v>
       </c>
       <c r="K45" t="n">
-        <v>174.0001444266162</v>
+        <v>174.0001444266163</v>
       </c>
       <c r="L45" t="n">
-        <v>233.9646671331079</v>
+        <v>233.964667133108</v>
       </c>
       <c r="M45" t="n">
-        <v>273.0257311439176</v>
+        <v>273.0257311439177</v>
       </c>
       <c r="N45" t="n">
-        <v>280.2519098338787</v>
+        <v>280.2519098338788</v>
       </c>
       <c r="O45" t="n">
-        <v>256.3757458432422</v>
+        <v>256.3757458432423</v>
       </c>
       <c r="P45" t="n">
         <v>205.7641385242148</v>
       </c>
       <c r="Q45" t="n">
-        <v>137.5478774314104</v>
+        <v>137.5478774314105</v>
       </c>
       <c r="R45" t="n">
-        <v>66.90241042190237</v>
+        <v>66.90241042190239</v>
       </c>
       <c r="S45" t="n">
         <v>20.01495536428061</v>
       </c>
       <c r="T45" t="n">
-        <v>4.343268944456643</v>
+        <v>4.343268944456644</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07089122325010848</v>
+        <v>0.07089122325010849</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9033788667718736</v>
+        <v>0.903378866771874</v>
       </c>
       <c r="H46" t="n">
-        <v>8.031859379117209</v>
+        <v>8.031859379117213</v>
       </c>
       <c r="I46" t="n">
-        <v>27.16706628437599</v>
+        <v>27.167066284376</v>
       </c>
       <c r="J46" t="n">
-        <v>63.86888588077147</v>
+        <v>63.86888588077149</v>
       </c>
       <c r="K46" t="n">
         <v>104.9561992485868</v>
       </c>
       <c r="L46" t="n">
-        <v>134.3077998835202</v>
+        <v>134.3077998835203</v>
       </c>
       <c r="M46" t="n">
-        <v>141.6087436340674</v>
+        <v>141.6087436340675</v>
       </c>
       <c r="N46" t="n">
         <v>138.2416042215542</v>
       </c>
       <c r="O46" t="n">
-        <v>127.6884965506281</v>
+        <v>127.6884965506282</v>
       </c>
       <c r="P46" t="n">
-        <v>109.2595676684818</v>
+        <v>109.2595676684819</v>
       </c>
       <c r="Q46" t="n">
-        <v>75.64566128941571</v>
+        <v>75.64566128941574</v>
       </c>
       <c r="R46" t="n">
-        <v>40.61919886412441</v>
+        <v>40.61919886412443</v>
       </c>
       <c r="S46" t="n">
-        <v>15.74342988728801</v>
+        <v>15.74342988728802</v>
       </c>
       <c r="T46" t="n">
-        <v>3.859891521661641</v>
+        <v>3.859891521661642</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04927521091482952</v>
+        <v>0.04927521091482955</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>211.4495804188783</v>
       </c>
       <c r="M12" t="n">
-        <v>249.9289506315896</v>
+        <v>491.0069015185159</v>
       </c>
       <c r="N12" t="n">
-        <v>499.9868325072632</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O12" t="n">
         <v>233.2038561210199</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.23212989686958</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K13" t="n">
-        <v>263.2783514489894</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L13" t="n">
         <v>492.5798415950563</v>
@@ -35579,13 +35579,13 @@
         <v>119.0333037425816</v>
       </c>
       <c r="N13" t="n">
-        <v>519.5461606619943</v>
+        <v>117.4927032459538</v>
       </c>
       <c r="O13" t="n">
-        <v>105.1893090522037</v>
+        <v>486.7068083483686</v>
       </c>
       <c r="P13" t="n">
-        <v>402.7941251653515</v>
+        <v>274.1276719966831</v>
       </c>
       <c r="Q13" t="n">
         <v>203.9286211285692</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>43.09406509183667</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J14" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K14" t="n">
         <v>220.4146208030745</v>
       </c>
       <c r="L14" t="n">
-        <v>279.5009348758923</v>
+        <v>279.5009348758924</v>
       </c>
       <c r="M14" t="n">
         <v>316.1969103611789</v>
       </c>
       <c r="N14" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O14" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P14" t="n">
         <v>252.0300333907961</v>
@@ -35670,7 +35670,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R14" t="n">
-        <v>91.47476854764778</v>
+        <v>91.47476854764781</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>44.62160174524548</v>
+        <v>20.92735341755676</v>
       </c>
       <c r="J15" t="n">
-        <v>81.1934083353724</v>
+        <v>81.19340833537242</v>
       </c>
       <c r="K15" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L15" t="n">
-        <v>211.4495804188783</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M15" t="n">
-        <v>249.9289506315896</v>
+        <v>491.0069015185156</v>
       </c>
       <c r="N15" t="n">
         <v>258.908881620337</v>
@@ -35743,13 +35743,13 @@
         <v>233.2038561210199</v>
       </c>
       <c r="P15" t="n">
-        <v>401.3769998786237</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q15" t="n">
         <v>114.8008391424319</v>
       </c>
       <c r="R15" t="n">
-        <v>43.22949102775821</v>
+        <v>43.22949102775823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.23212989686958</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K16" t="n">
-        <v>83.99154479587473</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L16" t="n">
         <v>492.5798415950563</v>
       </c>
       <c r="M16" t="n">
-        <v>536.7459102706844</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N16" t="n">
-        <v>434.0228833909449</v>
+        <v>117.4927032459538</v>
       </c>
       <c r="O16" t="n">
-        <v>105.1893090522037</v>
+        <v>358.0403551796997</v>
       </c>
       <c r="P16" t="n">
         <v>402.7941251653515</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.02609852463075</v>
+        <v>203.9286211285692</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>43.09406509183667</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J17" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K17" t="n">
         <v>220.4146208030745</v>
       </c>
       <c r="L17" t="n">
-        <v>279.5009348758923</v>
+        <v>279.5009348758924</v>
       </c>
       <c r="M17" t="n">
-        <v>316.1969103611788</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N17" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O17" t="n">
-        <v>301.9332887341496</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P17" t="n">
         <v>252.0300333907961</v>
@@ -35907,7 +35907,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R17" t="n">
-        <v>91.47476854764778</v>
+        <v>91.47476854764781</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.92735341755674</v>
+        <v>20.92735341755676</v>
       </c>
       <c r="J18" t="n">
-        <v>322.2713592222984</v>
+        <v>81.19340833537242</v>
       </c>
       <c r="K18" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L18" t="n">
-        <v>211.4495804188783</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M18" t="n">
-        <v>249.9289506315896</v>
+        <v>491.0069015185156</v>
       </c>
       <c r="N18" t="n">
         <v>258.908881620337</v>
@@ -35980,13 +35980,13 @@
         <v>233.2038561210199</v>
       </c>
       <c r="P18" t="n">
-        <v>183.993297319386</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q18" t="n">
         <v>114.8008391424319</v>
       </c>
       <c r="R18" t="n">
-        <v>43.2294910277582</v>
+        <v>43.22949102775823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.23212989686957</v>
+        <v>43.23212989686959</v>
       </c>
       <c r="K19" t="n">
-        <v>313.0569279907537</v>
+        <v>83.99154479587476</v>
       </c>
       <c r="L19" t="n">
-        <v>112.389039987819</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M19" t="n">
-        <v>536.7459102706844</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N19" t="n">
         <v>519.5461606619943</v>
@@ -36059,10 +36059,10 @@
         <v>486.7068083483686</v>
       </c>
       <c r="P19" t="n">
-        <v>86.87876701049531</v>
+        <v>353.4659551262396</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.02609852463074</v>
+        <v>51.02609852463077</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>43.09406509183668</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J20" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K20" t="n">
-        <v>220.4146208030745</v>
+        <v>220.4146208030746</v>
       </c>
       <c r="L20" t="n">
         <v>279.5009348758924</v>
       </c>
       <c r="M20" t="n">
-        <v>316.1969103611789</v>
+        <v>316.196910361179</v>
       </c>
       <c r="N20" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O20" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P20" t="n">
-        <v>252.0300333907961</v>
+        <v>252.0300333907962</v>
       </c>
       <c r="Q20" t="n">
-        <v>181.3569162787562</v>
+        <v>181.3569162787563</v>
       </c>
       <c r="R20" t="n">
-        <v>91.47476854764781</v>
+        <v>91.47476854764784</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.92735341755675</v>
+        <v>20.92735341755676</v>
       </c>
       <c r="J21" t="n">
-        <v>81.19340833537241</v>
+        <v>81.19340833537242</v>
       </c>
       <c r="K21" t="n">
-        <v>151.6009105932828</v>
+        <v>151.6009105932829</v>
       </c>
       <c r="L21" t="n">
-        <v>211.4495804188783</v>
+        <v>452.527531305804</v>
       </c>
       <c r="M21" t="n">
-        <v>249.9289506315896</v>
+        <v>249.9289506315897</v>
       </c>
       <c r="N21" t="n">
-        <v>258.908881620337</v>
+        <v>258.9088816203371</v>
       </c>
       <c r="O21" t="n">
-        <v>474.2818070079461</v>
+        <v>233.20385612102</v>
       </c>
       <c r="P21" t="n">
-        <v>183.9932973193861</v>
+        <v>183.9932973193862</v>
       </c>
       <c r="Q21" t="n">
-        <v>114.8008391424319</v>
+        <v>114.800839142432</v>
       </c>
       <c r="R21" t="n">
-        <v>43.22949102775821</v>
+        <v>43.22949102775823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>121.9409345920422</v>
       </c>
       <c r="K22" t="n">
-        <v>83.99154479587474</v>
+        <v>205.105504873693</v>
       </c>
       <c r="L22" t="n">
         <v>492.5798415950563</v>
       </c>
       <c r="M22" t="n">
-        <v>306.9116871631533</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N22" t="n">
-        <v>519.5461606619943</v>
+        <v>117.4927032459538</v>
       </c>
       <c r="O22" t="n">
         <v>486.7068083483686</v>
       </c>
       <c r="P22" t="n">
-        <v>86.87876701049534</v>
+        <v>402.7941251653515</v>
       </c>
       <c r="Q22" t="n">
-        <v>51.02609852463075</v>
+        <v>203.9286211285692</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>43.09406509183668</v>
+        <v>43.09406509183671</v>
       </c>
       <c r="J23" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K23" t="n">
-        <v>220.4146208030745</v>
+        <v>220.4146208030746</v>
       </c>
       <c r="L23" t="n">
-        <v>279.5009348758924</v>
+        <v>279.5009348758921</v>
       </c>
       <c r="M23" t="n">
-        <v>316.1969103611789</v>
+        <v>316.1969103611791</v>
       </c>
       <c r="N23" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O23" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P23" t="n">
-        <v>252.0300333907961</v>
+        <v>252.0300333907962</v>
       </c>
       <c r="Q23" t="n">
-        <v>181.3569162787562</v>
+        <v>181.3569162787563</v>
       </c>
       <c r="R23" t="n">
-        <v>91.47476854764781</v>
+        <v>91.47476854764784</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.92735341755675</v>
+        <v>20.92735341755677</v>
       </c>
       <c r="J24" t="n">
-        <v>81.19340833537241</v>
+        <v>81.19340833537244</v>
       </c>
       <c r="K24" t="n">
-        <v>151.6009105932828</v>
+        <v>151.6009105932829</v>
       </c>
       <c r="L24" t="n">
-        <v>211.4495804188783</v>
+        <v>452.5275313058038</v>
       </c>
       <c r="M24" t="n">
-        <v>491.0069015185159</v>
+        <v>249.9289506315897</v>
       </c>
       <c r="N24" t="n">
-        <v>258.908881620337</v>
+        <v>258.9088816203371</v>
       </c>
       <c r="O24" t="n">
-        <v>233.2038561210199</v>
+        <v>233.20385612102</v>
       </c>
       <c r="P24" t="n">
-        <v>183.9932973193861</v>
+        <v>183.9932973193862</v>
       </c>
       <c r="Q24" t="n">
-        <v>114.8008391424319</v>
+        <v>114.800839142432</v>
       </c>
       <c r="R24" t="n">
-        <v>43.22949102775821</v>
+        <v>43.22949102775824</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.23212989686958</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K25" t="n">
-        <v>313.0569279907536</v>
+        <v>83.99154479587477</v>
       </c>
       <c r="L25" t="n">
         <v>112.389039987819</v>
       </c>
       <c r="M25" t="n">
-        <v>536.7459102706844</v>
+        <v>536.7459102706845</v>
       </c>
       <c r="N25" t="n">
-        <v>519.5461606619943</v>
+        <v>519.5461606619945</v>
       </c>
       <c r="O25" t="n">
-        <v>486.7068083483686</v>
+        <v>484.1608642441368</v>
       </c>
       <c r="P25" t="n">
-        <v>86.87876701049534</v>
+        <v>86.87876701049538</v>
       </c>
       <c r="Q25" t="n">
-        <v>51.02609852463075</v>
+        <v>203.9286211285692</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>43.09406509183668</v>
+        <v>43.09406509183671</v>
       </c>
       <c r="J26" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K26" t="n">
-        <v>220.4146208030745</v>
+        <v>220.4146208030746</v>
       </c>
       <c r="L26" t="n">
-        <v>279.5009348758924</v>
+        <v>279.5009348758925</v>
       </c>
       <c r="M26" t="n">
-        <v>316.1969103611789</v>
+        <v>316.1969103611791</v>
       </c>
       <c r="N26" t="n">
-        <v>322.070623976394</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O26" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P26" t="n">
-        <v>252.0300333907961</v>
+        <v>252.0300333907962</v>
       </c>
       <c r="Q26" t="n">
-        <v>181.3569162787562</v>
+        <v>181.3569162787563</v>
       </c>
       <c r="R26" t="n">
-        <v>91.47476854764781</v>
+        <v>91.47476854764784</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>44.62160174524548</v>
+        <v>20.92735341755677</v>
       </c>
       <c r="J27" t="n">
-        <v>81.19340833537241</v>
+        <v>81.19340833537244</v>
       </c>
       <c r="K27" t="n">
-        <v>151.6009105932828</v>
+        <v>151.6009105932829</v>
       </c>
       <c r="L27" t="n">
-        <v>211.4495804188783</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M27" t="n">
-        <v>467.3126531908269</v>
+        <v>249.9289506315897</v>
       </c>
       <c r="N27" t="n">
-        <v>258.908881620337</v>
+        <v>258.9088816203371</v>
       </c>
       <c r="O27" t="n">
-        <v>233.2038561210199</v>
+        <v>233.20385612102</v>
       </c>
       <c r="P27" t="n">
-        <v>183.9932973193861</v>
+        <v>183.9932973193862</v>
       </c>
       <c r="Q27" t="n">
-        <v>114.8008391424319</v>
+        <v>355.8787900293572</v>
       </c>
       <c r="R27" t="n">
-        <v>43.22949102775821</v>
+        <v>43.22949102775824</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>121.9409345920422</v>
+        <v>43.23212989686961</v>
       </c>
       <c r="K28" t="n">
-        <v>83.99154479587474</v>
+        <v>83.99154479587477</v>
       </c>
       <c r="L28" t="n">
-        <v>492.5798415950563</v>
+        <v>407.0565643240071</v>
       </c>
       <c r="M28" t="n">
-        <v>119.0333037425816</v>
+        <v>536.7459102706845</v>
       </c>
       <c r="N28" t="n">
-        <v>519.5461606619943</v>
+        <v>519.5461606619945</v>
       </c>
       <c r="O28" t="n">
-        <v>205.7673110101458</v>
+        <v>105.1893090522037</v>
       </c>
       <c r="P28" t="n">
         <v>402.7941251653515</v>
       </c>
       <c r="Q28" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463078</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>43.09406509183668</v>
+        <v>43.09406509183671</v>
       </c>
       <c r="J29" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K29" t="n">
-        <v>220.4146208030745</v>
+        <v>220.4146208030746</v>
       </c>
       <c r="L29" t="n">
-        <v>279.5009348758924</v>
+        <v>279.5009348758925</v>
       </c>
       <c r="M29" t="n">
-        <v>316.1969103611789</v>
+        <v>316.1969103611791</v>
       </c>
       <c r="N29" t="n">
-        <v>322.070623976394</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O29" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P29" t="n">
-        <v>252.0300333907961</v>
+        <v>252.0300333907962</v>
       </c>
       <c r="Q29" t="n">
-        <v>181.3569162787562</v>
+        <v>181.3569162787563</v>
       </c>
       <c r="R29" t="n">
-        <v>91.47476854764781</v>
+        <v>91.47476854764784</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.92735341755675</v>
+        <v>20.92735341755677</v>
       </c>
       <c r="J30" t="n">
-        <v>81.19340833537241</v>
+        <v>81.19340833537244</v>
       </c>
       <c r="K30" t="n">
-        <v>151.6009105932828</v>
+        <v>151.6009105932829</v>
       </c>
       <c r="L30" t="n">
-        <v>211.4495804188783</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M30" t="n">
-        <v>249.9289506315896</v>
+        <v>249.9289506315897</v>
       </c>
       <c r="N30" t="n">
-        <v>258.908881620337</v>
+        <v>499.9868325072624</v>
       </c>
       <c r="O30" t="n">
-        <v>474.2818070079461</v>
+        <v>233.20385612102</v>
       </c>
       <c r="P30" t="n">
-        <v>183.9932973193861</v>
+        <v>183.9932973193862</v>
       </c>
       <c r="Q30" t="n">
-        <v>114.8008391424319</v>
+        <v>114.800839142432</v>
       </c>
       <c r="R30" t="n">
-        <v>43.22949102775821</v>
+        <v>43.22949102775824</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,25 +36992,25 @@
         <v>121.9409345920422</v>
       </c>
       <c r="K31" t="n">
-        <v>83.99154479587474</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L31" t="n">
-        <v>492.5798415950563</v>
+        <v>112.389039987819</v>
       </c>
       <c r="M31" t="n">
-        <v>536.7459102706844</v>
+        <v>536.7459102706845</v>
       </c>
       <c r="N31" t="n">
-        <v>289.7119375544635</v>
+        <v>519.5461606619945</v>
       </c>
       <c r="O31" t="n">
-        <v>486.7068083483686</v>
+        <v>387.2829736015896</v>
       </c>
       <c r="P31" t="n">
-        <v>86.87876701049534</v>
+        <v>86.87876701049538</v>
       </c>
       <c r="Q31" t="n">
-        <v>51.02609852463075</v>
+        <v>51.02609852463078</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>43.09406509183668</v>
+        <v>43.09406509183671</v>
       </c>
       <c r="J32" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K32" t="n">
-        <v>220.4146208030745</v>
+        <v>220.4146208030746</v>
       </c>
       <c r="L32" t="n">
-        <v>279.5009348758924</v>
+        <v>279.5009348758925</v>
       </c>
       <c r="M32" t="n">
-        <v>316.1969103611789</v>
+        <v>316.1969103611791</v>
       </c>
       <c r="N32" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O32" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P32" t="n">
-        <v>252.0300333907961</v>
+        <v>252.0300333907962</v>
       </c>
       <c r="Q32" t="n">
-        <v>181.3569162787562</v>
+        <v>181.3569162787563</v>
       </c>
       <c r="R32" t="n">
-        <v>91.47476854764781</v>
+        <v>91.47476854764784</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.92735341755675</v>
+        <v>20.92735341755677</v>
       </c>
       <c r="J33" t="n">
-        <v>81.19340833537241</v>
+        <v>81.19340833537244</v>
       </c>
       <c r="K33" t="n">
-        <v>151.6009105932828</v>
+        <v>392.6788614802082</v>
       </c>
       <c r="L33" t="n">
-        <v>211.4495804188783</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M33" t="n">
-        <v>249.9289506315896</v>
+        <v>249.9289506315897</v>
       </c>
       <c r="N33" t="n">
-        <v>258.908881620337</v>
+        <v>258.9088816203371</v>
       </c>
       <c r="O33" t="n">
-        <v>233.2038561210199</v>
+        <v>233.20385612102</v>
       </c>
       <c r="P33" t="n">
-        <v>425.0712482063122</v>
+        <v>183.9932973193862</v>
       </c>
       <c r="Q33" t="n">
-        <v>114.8008391424319</v>
+        <v>114.800839142432</v>
       </c>
       <c r="R33" t="n">
-        <v>43.22949102775821</v>
+        <v>43.22949102775824</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.23212989686958</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K34" t="n">
         <v>333.7719580423617</v>
       </c>
       <c r="L34" t="n">
-        <v>492.5798415950563</v>
+        <v>492.5798415950564</v>
       </c>
       <c r="M34" t="n">
-        <v>536.7459102706844</v>
+        <v>524.7868724740169</v>
       </c>
       <c r="N34" t="n">
         <v>117.4927032459538</v>
@@ -37244,10 +37244,10 @@
         <v>105.1893090522037</v>
       </c>
       <c r="P34" t="n">
-        <v>316.6413694599168</v>
+        <v>402.7941251653515</v>
       </c>
       <c r="Q34" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463078</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>43.09406509183668</v>
+        <v>43.09406509183671</v>
       </c>
       <c r="J35" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K35" t="n">
-        <v>220.4146208030745</v>
+        <v>220.4146208030746</v>
       </c>
       <c r="L35" t="n">
-        <v>279.5009348758924</v>
+        <v>279.5009348758925</v>
       </c>
       <c r="M35" t="n">
-        <v>316.1969103611789</v>
+        <v>316.1969103611791</v>
       </c>
       <c r="N35" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O35" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P35" t="n">
-        <v>252.0300333907961</v>
+        <v>252.0300333907962</v>
       </c>
       <c r="Q35" t="n">
-        <v>181.3569162787562</v>
+        <v>181.3569162787563</v>
       </c>
       <c r="R35" t="n">
-        <v>91.47476854764781</v>
+        <v>91.47476854764784</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.92735341755675</v>
+        <v>44.6216017452455</v>
       </c>
       <c r="J36" t="n">
-        <v>81.19340833537241</v>
+        <v>298.5771108946091</v>
       </c>
       <c r="K36" t="n">
-        <v>151.6009105932828</v>
+        <v>151.6009105932829</v>
       </c>
       <c r="L36" t="n">
-        <v>211.4495804188783</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M36" t="n">
-        <v>249.9289506315896</v>
+        <v>249.9289506315897</v>
       </c>
       <c r="N36" t="n">
-        <v>499.9868325072632</v>
+        <v>258.9088816203371</v>
       </c>
       <c r="O36" t="n">
-        <v>233.2038561210199</v>
+        <v>233.20385612102</v>
       </c>
       <c r="P36" t="n">
-        <v>183.9932973193861</v>
+        <v>183.9932973193862</v>
       </c>
       <c r="Q36" t="n">
-        <v>114.8008391424319</v>
+        <v>114.800839142432</v>
       </c>
       <c r="R36" t="n">
-        <v>43.22949102775821</v>
+        <v>43.22949102775824</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.23212989686958</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K37" t="n">
-        <v>333.7719580423617</v>
+        <v>234.3481232955824</v>
       </c>
       <c r="L37" t="n">
         <v>112.389039987819</v>
       </c>
       <c r="M37" t="n">
-        <v>536.7459102706844</v>
+        <v>536.7459102706845</v>
       </c>
       <c r="N37" t="n">
-        <v>519.5461606619943</v>
+        <v>519.5461606619945</v>
       </c>
       <c r="O37" t="n">
-        <v>465.9917782967614</v>
+        <v>486.7068083483687</v>
       </c>
       <c r="P37" t="n">
-        <v>86.87876701049534</v>
+        <v>86.87876701049538</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.02609852463075</v>
+        <v>51.02609852463078</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>43.09406509183668</v>
+        <v>43.09406509183671</v>
       </c>
       <c r="J38" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K38" t="n">
-        <v>220.4146208030745</v>
+        <v>220.4146208030746</v>
       </c>
       <c r="L38" t="n">
-        <v>279.5009348758924</v>
+        <v>279.5009348758925</v>
       </c>
       <c r="M38" t="n">
-        <v>316.1969103611789</v>
+        <v>316.1969103611791</v>
       </c>
       <c r="N38" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O38" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P38" t="n">
-        <v>252.0300333907961</v>
+        <v>252.0300333907962</v>
       </c>
       <c r="Q38" t="n">
-        <v>181.3569162787562</v>
+        <v>181.3569162787563</v>
       </c>
       <c r="R38" t="n">
-        <v>91.47476854764781</v>
+        <v>91.47476854764784</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.92735341755675</v>
+        <v>20.92735341755677</v>
       </c>
       <c r="J39" t="n">
-        <v>81.19340833537241</v>
+        <v>81.19340833537244</v>
       </c>
       <c r="K39" t="n">
-        <v>151.6009105932828</v>
+        <v>151.6009105932829</v>
       </c>
       <c r="L39" t="n">
-        <v>346.0068239473136</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M39" t="n">
-        <v>249.9289506315896</v>
+        <v>249.9289506315897</v>
       </c>
       <c r="N39" t="n">
-        <v>258.908881620337</v>
+        <v>499.9868325072624</v>
       </c>
       <c r="O39" t="n">
-        <v>233.2038561210199</v>
+        <v>233.20385612102</v>
       </c>
       <c r="P39" t="n">
-        <v>183.9932973193861</v>
+        <v>183.9932973193862</v>
       </c>
       <c r="Q39" t="n">
-        <v>114.8008391424319</v>
+        <v>114.800839142432</v>
       </c>
       <c r="R39" t="n">
-        <v>149.7501983862489</v>
+        <v>43.22949102775824</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,19 +37706,19 @@
         <v>333.7719580423617</v>
       </c>
       <c r="L40" t="n">
-        <v>492.5798415950563</v>
+        <v>112.389039987819</v>
       </c>
       <c r="M40" t="n">
-        <v>285.7462506088937</v>
+        <v>350.0216940612754</v>
       </c>
       <c r="N40" t="n">
-        <v>519.5461606619943</v>
+        <v>519.5461606619945</v>
       </c>
       <c r="O40" t="n">
         <v>105.1893090522037</v>
       </c>
       <c r="P40" t="n">
-        <v>86.87876701049534</v>
+        <v>402.7941251653515</v>
       </c>
       <c r="Q40" t="n">
         <v>203.9286211285692</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>43.0940650918367</v>
+        <v>43.09406509183673</v>
       </c>
       <c r="J41" t="n">
-        <v>141.50968063189</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K41" t="n">
-        <v>220.4146208030745</v>
+        <v>220.4146208030746</v>
       </c>
       <c r="L41" t="n">
-        <v>279.5009348758924</v>
+        <v>279.5009348758925</v>
       </c>
       <c r="M41" t="n">
-        <v>316.1969103611789</v>
+        <v>316.1969103611791</v>
       </c>
       <c r="N41" t="n">
-        <v>322.0706239763942</v>
+        <v>322.0706239763943</v>
       </c>
       <c r="O41" t="n">
-        <v>301.9332887341498</v>
+        <v>301.9332887341499</v>
       </c>
       <c r="P41" t="n">
-        <v>252.0300333907961</v>
+        <v>252.0300333907962</v>
       </c>
       <c r="Q41" t="n">
-        <v>181.3569162787562</v>
+        <v>181.3569162787563</v>
       </c>
       <c r="R41" t="n">
-        <v>91.47476854764781</v>
+        <v>91.47476854764787</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.92735341755676</v>
+        <v>20.92735341755677</v>
       </c>
       <c r="J42" t="n">
-        <v>81.19340833537242</v>
+        <v>81.19340833537245</v>
       </c>
       <c r="K42" t="n">
-        <v>151.6009105932828</v>
+        <v>151.6009105932829</v>
       </c>
       <c r="L42" t="n">
         <v>211.4495804188784</v>
       </c>
       <c r="M42" t="n">
-        <v>249.9289506315896</v>
+        <v>249.9289506315897</v>
       </c>
       <c r="N42" t="n">
-        <v>258.908881620337</v>
+        <v>258.9088816203371</v>
       </c>
       <c r="O42" t="n">
-        <v>474.2818070079459</v>
+        <v>474.2818070079452</v>
       </c>
       <c r="P42" t="n">
-        <v>183.9932973193861</v>
+        <v>183.9932973193862</v>
       </c>
       <c r="Q42" t="n">
-        <v>114.8008391424319</v>
+        <v>114.800839142432</v>
       </c>
       <c r="R42" t="n">
-        <v>43.22949102775823</v>
+        <v>43.22949102775824</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.23212989686959</v>
+        <v>43.23212989686962</v>
       </c>
       <c r="K43" t="n">
-        <v>261.9516537600624</v>
+        <v>83.99154479587479</v>
       </c>
       <c r="L43" t="n">
         <v>112.389039987819</v>
       </c>
       <c r="M43" t="n">
-        <v>119.0333037425816</v>
+        <v>536.7459102706845</v>
       </c>
       <c r="N43" t="n">
-        <v>519.5461606619943</v>
+        <v>519.5461606619945</v>
       </c>
       <c r="O43" t="n">
-        <v>486.7068083483686</v>
+        <v>399.8568333883925</v>
       </c>
       <c r="P43" t="n">
-        <v>402.7941251653515</v>
+        <v>402.7941251653516</v>
       </c>
       <c r="Q43" t="n">
-        <v>203.9286211285692</v>
+        <v>51.0260985246308</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>43.0940650918367</v>
+        <v>43.09406509183673</v>
       </c>
       <c r="J44" t="n">
         <v>141.5096806318896</v>
       </c>
       <c r="K44" t="n">
-        <v>220.4146208030745</v>
+        <v>220.4146208030746</v>
       </c>
       <c r="L44" t="n">
-        <v>279.5009348758924</v>
+        <v>279.5009348758925</v>
       </c>
       <c r="M44" t="n">
-        <v>316.1969103611789</v>
+        <v>316.1969103611791</v>
       </c>
       <c r="N44" t="n">
-        <v>322.0706239763942</v>
+        <v>322.0706239763943</v>
       </c>
       <c r="O44" t="n">
-        <v>301.9332887341498</v>
+        <v>301.9332887341499</v>
       </c>
       <c r="P44" t="n">
-        <v>252.0300333907961</v>
+        <v>252.0300333907962</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.3569162787562</v>
+        <v>181.3569162787563</v>
       </c>
       <c r="R44" t="n">
-        <v>91.47476854764781</v>
+        <v>91.47476854764825</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.92735341755676</v>
+        <v>44.6216017452455</v>
       </c>
       <c r="J45" t="n">
-        <v>81.19340833537242</v>
+        <v>81.19340833537245</v>
       </c>
       <c r="K45" t="n">
-        <v>151.6009105932828</v>
+        <v>151.6009105932829</v>
       </c>
       <c r="L45" t="n">
-        <v>452.5275313058041</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M45" t="n">
-        <v>249.9289506315896</v>
+        <v>467.3126531908261</v>
       </c>
       <c r="N45" t="n">
-        <v>258.908881620337</v>
+        <v>258.9088816203371</v>
       </c>
       <c r="O45" t="n">
-        <v>233.2038561210199</v>
+        <v>233.20385612102</v>
       </c>
       <c r="P45" t="n">
-        <v>183.9932973193861</v>
+        <v>183.9932973193862</v>
       </c>
       <c r="Q45" t="n">
-        <v>114.8008391424319</v>
+        <v>114.800839142432</v>
       </c>
       <c r="R45" t="n">
-        <v>43.22949102775823</v>
+        <v>43.22949102775824</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>121.9409345920422</v>
       </c>
       <c r="K46" t="n">
-        <v>321.8129202456939</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L46" t="n">
-        <v>492.5798415950563</v>
+        <v>112.389039987819</v>
       </c>
       <c r="M46" t="n">
-        <v>536.7459102706844</v>
+        <v>536.7459102706845</v>
       </c>
       <c r="N46" t="n">
-        <v>117.4927032459538</v>
+        <v>420.1223259152155</v>
       </c>
       <c r="O46" t="n">
-        <v>105.1893090522037</v>
+        <v>486.7068083483687</v>
       </c>
       <c r="P46" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049539</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.02609852463077</v>
+        <v>51.0260985246308</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
